--- a/academycity/academycity/media/training/excel/daily_run.xlsx
+++ b/academycity/academycity/media/training/excel/daily_run.xlsx
@@ -37441,7 +37441,7 @@
       </c>
       <c r="C412" t="inlineStr">
         <is>
-          <t>Nsamba</t>
+          <t>Tshibangu</t>
         </is>
       </c>
       <c r="D412" t="inlineStr">
@@ -37452,17 +37452,17 @@
       <c r="E412" t="inlineStr"/>
       <c r="F412" t="inlineStr">
         <is>
-          <t>232023</t>
+          <t>232045</t>
         </is>
       </c>
       <c r="G412" t="inlineStr">
         <is>
-          <t>1807220280</t>
+          <t>1807220598</t>
         </is>
       </c>
       <c r="H412" t="inlineStr">
         <is>
-          <t>10220230</t>
+          <t>9221169</t>
         </is>
       </c>
       <c r="I412" t="inlineStr"/>
@@ -37481,17 +37481,17 @@
       </c>
       <c r="S412" t="inlineStr">
         <is>
-          <t>9.00</t>
+          <t>7.50</t>
         </is>
       </c>
       <c r="T412" t="inlineStr">
         <is>
-          <t>l</t>
+          <t>s</t>
         </is>
       </c>
       <c r="U412" t="inlineStr">
         <is>
-          <t>l</t>
+          <t>s</t>
         </is>
       </c>
       <c r="V412" t="n">
@@ -37531,7 +37531,7 @@
       </c>
       <c r="C413" t="inlineStr">
         <is>
-          <t>Tshibangu</t>
+          <t>Nsamba</t>
         </is>
       </c>
       <c r="D413" t="inlineStr">
@@ -37542,17 +37542,17 @@
       <c r="E413" t="inlineStr"/>
       <c r="F413" t="inlineStr">
         <is>
-          <t>232045</t>
+          <t>232023</t>
         </is>
       </c>
       <c r="G413" t="inlineStr">
         <is>
-          <t>1807220598</t>
+          <t>1807220280</t>
         </is>
       </c>
       <c r="H413" t="inlineStr">
         <is>
-          <t>9221169</t>
+          <t>10220230</t>
         </is>
       </c>
       <c r="I413" t="inlineStr"/>
@@ -37571,17 +37571,17 @@
       </c>
       <c r="S413" t="inlineStr">
         <is>
-          <t>7.50</t>
+          <t>9.00</t>
         </is>
       </c>
       <c r="T413" t="inlineStr">
         <is>
-          <t>s</t>
+          <t>l</t>
         </is>
       </c>
       <c r="U413" t="inlineStr">
         <is>
-          <t>s</t>
+          <t>l</t>
         </is>
       </c>
       <c r="V413" t="n">

--- a/academycity/academycity/media/training/excel/daily_run.xlsx
+++ b/academycity/academycity/media/training/excel/daily_run.xlsx
@@ -11971,7 +11971,7 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Kabundi</t>
+          <t>Katanga</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -11982,17 +11982,17 @@
       <c r="E129" t="inlineStr"/>
       <c r="F129" t="inlineStr">
         <is>
-          <t>233022</t>
+          <t>233036</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>1807220537</t>
+          <t>1807220502</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>9221207</t>
+          <t>9221242</t>
         </is>
       </c>
       <c r="I129" t="inlineStr"/>
@@ -12011,7 +12011,7 @@
       </c>
       <c r="S129" t="inlineStr">
         <is>
-          <t>42.00</t>
+          <t>43.00</t>
         </is>
       </c>
       <c r="T129" t="inlineStr">
@@ -12061,7 +12061,7 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Katanga</t>
+          <t>Kabundi</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -12072,17 +12072,17 @@
       <c r="E130" t="inlineStr"/>
       <c r="F130" t="inlineStr">
         <is>
-          <t>233036</t>
+          <t>233022</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>1807220502</t>
+          <t>1807220537</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>9221242</t>
+          <t>9221207</t>
         </is>
       </c>
       <c r="I130" t="inlineStr"/>
@@ -12101,7 +12101,7 @@
       </c>
       <c r="S130" t="inlineStr">
         <is>
-          <t>43.00</t>
+          <t>42.00</t>
         </is>
       </c>
       <c r="T130" t="inlineStr">
@@ -13321,7 +13321,7 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Mamba</t>
+          <t>Kamwanga</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -13332,17 +13332,17 @@
       <c r="E144" t="inlineStr"/>
       <c r="F144" t="inlineStr">
         <is>
-          <t>233012</t>
+          <t>233033</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>1807220548</t>
+          <t>1807220409</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>9221298</t>
+          <t>9221319</t>
         </is>
       </c>
       <c r="I144" t="inlineStr"/>
@@ -13361,7 +13361,7 @@
       </c>
       <c r="S144" t="inlineStr">
         <is>
-          <t>42.00</t>
+          <t>43.00</t>
         </is>
       </c>
       <c r="T144" t="inlineStr">
@@ -13371,7 +13371,7 @@
       </c>
       <c r="U144" t="inlineStr">
         <is>
-          <t>s</t>
+          <t>m</t>
         </is>
       </c>
       <c r="V144" t="n">
@@ -13411,7 +13411,7 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Kamwanga</t>
+          <t>Mamba</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -13422,17 +13422,17 @@
       <c r="E145" t="inlineStr"/>
       <c r="F145" t="inlineStr">
         <is>
-          <t>233033</t>
+          <t>233012</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>1807220409</t>
+          <t>1807220548</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>9221319</t>
+          <t>9221298</t>
         </is>
       </c>
       <c r="I145" t="inlineStr"/>
@@ -13451,7 +13451,7 @@
       </c>
       <c r="S145" t="inlineStr">
         <is>
-          <t>43.00</t>
+          <t>42.00</t>
         </is>
       </c>
       <c r="T145" t="inlineStr">
@@ -13461,7 +13461,7 @@
       </c>
       <c r="U145" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>s</t>
         </is>
       </c>
       <c r="V145" t="n">
@@ -19711,7 +19711,7 @@
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>Ngandu</t>
+          <t>Tshipata</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
@@ -19722,17 +19722,17 @@
       <c r="E215" t="inlineStr"/>
       <c r="F215" t="inlineStr">
         <is>
-          <t>232098</t>
+          <t>232062</t>
         </is>
       </c>
       <c r="G215" t="inlineStr">
         <is>
-          <t>1807220134</t>
+          <t>1807220184</t>
         </is>
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>9221383</t>
+          <t>9221090</t>
         </is>
       </c>
       <c r="I215" t="inlineStr"/>
@@ -19801,7 +19801,7 @@
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>Tshipata</t>
+          <t>Ngandu</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
@@ -19812,17 +19812,17 @@
       <c r="E216" t="inlineStr"/>
       <c r="F216" t="inlineStr">
         <is>
-          <t>232062</t>
+          <t>232098</t>
         </is>
       </c>
       <c r="G216" t="inlineStr">
         <is>
-          <t>1807220184</t>
+          <t>1807220134</t>
         </is>
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>9221090</t>
+          <t>9221383</t>
         </is>
       </c>
       <c r="I216" t="inlineStr"/>
@@ -24121,7 +24121,7 @@
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>Tumika</t>
+          <t>Bema</t>
         </is>
       </c>
       <c r="D264" t="inlineStr">
@@ -24132,17 +24132,17 @@
       <c r="E264" t="inlineStr"/>
       <c r="F264" t="inlineStr">
         <is>
-          <t>231102</t>
+          <t>231112</t>
         </is>
       </c>
       <c r="G264" t="inlineStr">
         <is>
-          <t>1807220426</t>
+          <t>em1807220366</t>
         </is>
       </c>
       <c r="H264" t="inlineStr">
         <is>
-          <t>r09221392</t>
+          <t>r09221181</t>
         </is>
       </c>
       <c r="I264" t="inlineStr"/>
@@ -24166,12 +24166,12 @@
       </c>
       <c r="T264" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>l</t>
         </is>
       </c>
       <c r="U264" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>l</t>
         </is>
       </c>
       <c r="V264" t="n">
@@ -24211,7 +24211,7 @@
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>Bema</t>
+          <t>Tumika</t>
         </is>
       </c>
       <c r="D265" t="inlineStr">
@@ -24222,17 +24222,17 @@
       <c r="E265" t="inlineStr"/>
       <c r="F265" t="inlineStr">
         <is>
-          <t>231112</t>
+          <t>231102</t>
         </is>
       </c>
       <c r="G265" t="inlineStr">
         <is>
-          <t>em1807220366</t>
+          <t>1807220426</t>
         </is>
       </c>
       <c r="H265" t="inlineStr">
         <is>
-          <t>r09221181</t>
+          <t>r09221392</t>
         </is>
       </c>
       <c r="I265" t="inlineStr"/>
@@ -24256,12 +24256,12 @@
       </c>
       <c r="T265" t="inlineStr">
         <is>
-          <t>l</t>
+          <t>m</t>
         </is>
       </c>
       <c r="U265" t="inlineStr">
         <is>
-          <t>l</t>
+          <t>m</t>
         </is>
       </c>
       <c r="V265" t="n">
@@ -27901,7 +27901,7 @@
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>Kabatusuila</t>
+          <t>Diemo</t>
         </is>
       </c>
       <c r="D306" t="inlineStr">
@@ -27912,17 +27912,17 @@
       <c r="E306" t="inlineStr"/>
       <c r="F306" t="inlineStr">
         <is>
-          <t>231012</t>
+          <t>231039</t>
         </is>
       </c>
       <c r="G306" t="inlineStr">
         <is>
-          <t>1807220232</t>
+          <t>1807220219</t>
         </is>
       </c>
       <c r="H306" t="inlineStr">
         <is>
-          <t>R09221152</t>
+          <t>R09221099</t>
         </is>
       </c>
       <c r="I306" t="inlineStr"/>
@@ -28081,7 +28081,7 @@
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>Diemo</t>
+          <t>Kabatusuila</t>
         </is>
       </c>
       <c r="D308" t="inlineStr">
@@ -28092,17 +28092,17 @@
       <c r="E308" t="inlineStr"/>
       <c r="F308" t="inlineStr">
         <is>
-          <t>231039</t>
+          <t>231012</t>
         </is>
       </c>
       <c r="G308" t="inlineStr">
         <is>
-          <t>1807220219</t>
+          <t>1807220232</t>
         </is>
       </c>
       <c r="H308" t="inlineStr">
         <is>
-          <t>R09221099</t>
+          <t>R09221152</t>
         </is>
       </c>
       <c r="I308" t="inlineStr"/>
@@ -40231,7 +40231,7 @@
       </c>
       <c r="C443" t="inlineStr">
         <is>
-          <t>Kapuku</t>
+          <t>Kazadi</t>
         </is>
       </c>
       <c r="D443" t="inlineStr">
@@ -40242,17 +40242,17 @@
       <c r="E443" t="inlineStr"/>
       <c r="F443" t="inlineStr">
         <is>
-          <t>232003</t>
+          <t>232033</t>
         </is>
       </c>
       <c r="G443" t="inlineStr">
         <is>
-          <t>1807220160</t>
+          <t>1807220251</t>
         </is>
       </c>
       <c r="H443" t="inlineStr">
         <is>
-          <t>10220300</t>
+          <t>10220241</t>
         </is>
       </c>
       <c r="I443" t="inlineStr"/>
@@ -40271,7 +40271,7 @@
       </c>
       <c r="S443" t="inlineStr">
         <is>
-          <t>40.00</t>
+          <t>10.50</t>
         </is>
       </c>
       <c r="T443" t="inlineStr">
@@ -40321,7 +40321,7 @@
       </c>
       <c r="C444" t="inlineStr">
         <is>
-          <t>Kazadi</t>
+          <t>Kapuku</t>
         </is>
       </c>
       <c r="D444" t="inlineStr">
@@ -40332,17 +40332,17 @@
       <c r="E444" t="inlineStr"/>
       <c r="F444" t="inlineStr">
         <is>
-          <t>232033</t>
+          <t>232003</t>
         </is>
       </c>
       <c r="G444" t="inlineStr">
         <is>
-          <t>1807220251</t>
+          <t>1807220160</t>
         </is>
       </c>
       <c r="H444" t="inlineStr">
         <is>
-          <t>10220241</t>
+          <t>10220300</t>
         </is>
       </c>
       <c r="I444" t="inlineStr"/>
@@ -40361,7 +40361,7 @@
       </c>
       <c r="S444" t="inlineStr">
         <is>
-          <t>10.50</t>
+          <t>40.00</t>
         </is>
       </c>
       <c r="T444" t="inlineStr">

--- a/academycity/academycity/media/training/excel/daily_run.xlsx
+++ b/academycity/academycity/media/training/excel/daily_run.xlsx
@@ -5761,7 +5761,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Kabasele</t>
+          <t>Bena</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -5772,17 +5772,17 @@
       <c r="E60" t="inlineStr"/>
       <c r="F60" t="inlineStr">
         <is>
-          <t>233121</t>
+          <t>233145</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>1807220111</t>
+          <t>1807220517</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>9221460</t>
+          <t>9221475</t>
         </is>
       </c>
       <c r="I60" t="inlineStr"/>
@@ -5801,7 +5801,7 @@
       </c>
       <c r="S60" t="inlineStr">
         <is>
-          <t>43.00</t>
+          <t>42.00</t>
         </is>
       </c>
       <c r="T60" t="inlineStr">
@@ -5851,7 +5851,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Bena</t>
+          <t>Kabasele</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -5862,17 +5862,17 @@
       <c r="E61" t="inlineStr"/>
       <c r="F61" t="inlineStr">
         <is>
-          <t>233145</t>
+          <t>233121</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>1807220517</t>
+          <t>1807220111</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>9221475</t>
+          <t>9221460</t>
         </is>
       </c>
       <c r="I61" t="inlineStr"/>
@@ -5891,7 +5891,7 @@
       </c>
       <c r="S61" t="inlineStr">
         <is>
-          <t>42.00</t>
+          <t>43.00</t>
         </is>
       </c>
       <c r="T61" t="inlineStr">
@@ -11971,7 +11971,7 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Katanga</t>
+          <t>Kabundi</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -11982,17 +11982,17 @@
       <c r="E129" t="inlineStr"/>
       <c r="F129" t="inlineStr">
         <is>
-          <t>233036</t>
+          <t>233022</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>1807220502</t>
+          <t>1807220537</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>9221242</t>
+          <t>9221207</t>
         </is>
       </c>
       <c r="I129" t="inlineStr"/>
@@ -12011,7 +12011,7 @@
       </c>
       <c r="S129" t="inlineStr">
         <is>
-          <t>43.00</t>
+          <t>42.00</t>
         </is>
       </c>
       <c r="T129" t="inlineStr">
@@ -12061,7 +12061,7 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Kabundi</t>
+          <t>Katanga</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -12072,17 +12072,17 @@
       <c r="E130" t="inlineStr"/>
       <c r="F130" t="inlineStr">
         <is>
-          <t>233022</t>
+          <t>233036</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>1807220537</t>
+          <t>1807220502</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>9221207</t>
+          <t>9221242</t>
         </is>
       </c>
       <c r="I130" t="inlineStr"/>
@@ -12101,7 +12101,7 @@
       </c>
       <c r="S130" t="inlineStr">
         <is>
-          <t>42.00</t>
+          <t>43.00</t>
         </is>
       </c>
       <c r="T130" t="inlineStr">
@@ -13321,7 +13321,7 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Kamwanga</t>
+          <t>Mamba</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -13332,17 +13332,17 @@
       <c r="E144" t="inlineStr"/>
       <c r="F144" t="inlineStr">
         <is>
-          <t>233033</t>
+          <t>233012</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>1807220409</t>
+          <t>1807220548</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>9221319</t>
+          <t>9221298</t>
         </is>
       </c>
       <c r="I144" t="inlineStr"/>
@@ -13361,7 +13361,7 @@
       </c>
       <c r="S144" t="inlineStr">
         <is>
-          <t>43.00</t>
+          <t>42.00</t>
         </is>
       </c>
       <c r="T144" t="inlineStr">
@@ -13371,7 +13371,7 @@
       </c>
       <c r="U144" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>s</t>
         </is>
       </c>
       <c r="V144" t="n">
@@ -13411,7 +13411,7 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Mamba</t>
+          <t>Kamwanga</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -13422,17 +13422,17 @@
       <c r="E145" t="inlineStr"/>
       <c r="F145" t="inlineStr">
         <is>
-          <t>233012</t>
+          <t>233033</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>1807220548</t>
+          <t>1807220409</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>9221298</t>
+          <t>9221319</t>
         </is>
       </c>
       <c r="I145" t="inlineStr"/>
@@ -13451,7 +13451,7 @@
       </c>
       <c r="S145" t="inlineStr">
         <is>
-          <t>42.00</t>
+          <t>43.00</t>
         </is>
       </c>
       <c r="T145" t="inlineStr">
@@ -13461,7 +13461,7 @@
       </c>
       <c r="U145" t="inlineStr">
         <is>
-          <t>s</t>
+          <t>m</t>
         </is>
       </c>
       <c r="V145" t="n">
@@ -17281,7 +17281,7 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>Lubula</t>
+          <t>Kalala</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
@@ -17292,17 +17292,17 @@
       <c r="E188" t="inlineStr"/>
       <c r="F188" t="inlineStr">
         <is>
-          <t>233198</t>
+          <t>233177</t>
         </is>
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>1807220093</t>
+          <t>1807220447</t>
         </is>
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>9221427</t>
+          <t>9221443</t>
         </is>
       </c>
       <c r="I188" t="inlineStr"/>
@@ -17321,7 +17321,7 @@
       </c>
       <c r="S188" t="inlineStr">
         <is>
-          <t>43.00</t>
+          <t>44.00</t>
         </is>
       </c>
       <c r="T188" t="inlineStr">
@@ -17371,7 +17371,7 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>Kalala</t>
+          <t>Lubula</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
@@ -17382,17 +17382,17 @@
       <c r="E189" t="inlineStr"/>
       <c r="F189" t="inlineStr">
         <is>
-          <t>233177</t>
+          <t>233198</t>
         </is>
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>1807220447</t>
+          <t>1807220093</t>
         </is>
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>9221443</t>
+          <t>9221427</t>
         </is>
       </c>
       <c r="I189" t="inlineStr"/>
@@ -17411,7 +17411,7 @@
       </c>
       <c r="S189" t="inlineStr">
         <is>
-          <t>44.00</t>
+          <t>43.00</t>
         </is>
       </c>
       <c r="T189" t="inlineStr">
@@ -19711,7 +19711,7 @@
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>Ngandu</t>
+          <t>Tshipata</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
@@ -19722,17 +19722,17 @@
       <c r="E215" t="inlineStr"/>
       <c r="F215" t="inlineStr">
         <is>
-          <t>232098</t>
+          <t>232062</t>
         </is>
       </c>
       <c r="G215" t="inlineStr">
         <is>
-          <t>1807220134</t>
+          <t>1807220184</t>
         </is>
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>9221383</t>
+          <t>9221090</t>
         </is>
       </c>
       <c r="I215" t="inlineStr"/>
@@ -19801,7 +19801,7 @@
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>Tshipata</t>
+          <t>Ngandu</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
@@ -19812,17 +19812,17 @@
       <c r="E216" t="inlineStr"/>
       <c r="F216" t="inlineStr">
         <is>
-          <t>232062</t>
+          <t>232098</t>
         </is>
       </c>
       <c r="G216" t="inlineStr">
         <is>
-          <t>1807220184</t>
+          <t>1807220134</t>
         </is>
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>9221090</t>
+          <t>9221383</t>
         </is>
       </c>
       <c r="I216" t="inlineStr"/>
@@ -24121,7 +24121,7 @@
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>Tumika</t>
+          <t>Bema</t>
         </is>
       </c>
       <c r="D264" t="inlineStr">
@@ -24132,17 +24132,17 @@
       <c r="E264" t="inlineStr"/>
       <c r="F264" t="inlineStr">
         <is>
-          <t>231102</t>
+          <t>231112</t>
         </is>
       </c>
       <c r="G264" t="inlineStr">
         <is>
-          <t>1807220426</t>
+          <t>em1807220366</t>
         </is>
       </c>
       <c r="H264" t="inlineStr">
         <is>
-          <t>r09221392</t>
+          <t>r09221181</t>
         </is>
       </c>
       <c r="I264" t="inlineStr"/>
@@ -24166,12 +24166,12 @@
       </c>
       <c r="T264" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>l</t>
         </is>
       </c>
       <c r="U264" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>l</t>
         </is>
       </c>
       <c r="V264" t="n">
@@ -24211,7 +24211,7 @@
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>Bema</t>
+          <t>Tumika</t>
         </is>
       </c>
       <c r="D265" t="inlineStr">
@@ -24222,17 +24222,17 @@
       <c r="E265" t="inlineStr"/>
       <c r="F265" t="inlineStr">
         <is>
-          <t>231112</t>
+          <t>231102</t>
         </is>
       </c>
       <c r="G265" t="inlineStr">
         <is>
-          <t>em1807220366</t>
+          <t>1807220426</t>
         </is>
       </c>
       <c r="H265" t="inlineStr">
         <is>
-          <t>r09221181</t>
+          <t>r09221392</t>
         </is>
       </c>
       <c r="I265" t="inlineStr"/>
@@ -24256,12 +24256,12 @@
       </c>
       <c r="T265" t="inlineStr">
         <is>
-          <t>l</t>
+          <t>m</t>
         </is>
       </c>
       <c r="U265" t="inlineStr">
         <is>
-          <t>l</t>
+          <t>m</t>
         </is>
       </c>
       <c r="V265" t="n">
@@ -30871,28 +30871,28 @@
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t>Kalala</t>
+          <t>Ndaye</t>
         </is>
       </c>
       <c r="D339" t="inlineStr">
         <is>
-          <t>Badibanga</t>
+          <t>Beya</t>
         </is>
       </c>
       <c r="E339" t="inlineStr"/>
       <c r="F339" t="inlineStr">
         <is>
-          <t>232178</t>
+          <t>231048</t>
         </is>
       </c>
       <c r="G339" t="inlineStr">
         <is>
-          <t>1807220106</t>
+          <t>1807220044</t>
         </is>
       </c>
       <c r="H339" t="inlineStr">
         <is>
-          <t>10221355</t>
+          <t>R9221054</t>
         </is>
       </c>
       <c r="I339" t="inlineStr"/>
@@ -30911,17 +30911,17 @@
       </c>
       <c r="S339" t="inlineStr">
         <is>
-          <t>10.00</t>
+          <t>44.00</t>
         </is>
       </c>
       <c r="T339" t="inlineStr">
         <is>
-          <t>s</t>
+          <t>l</t>
         </is>
       </c>
       <c r="U339" t="inlineStr">
         <is>
-          <t>s</t>
+          <t>l</t>
         </is>
       </c>
       <c r="V339" t="n">
@@ -30943,7 +30943,7 @@
       <c r="AB339" t="inlineStr"/>
       <c r="AC339" t="inlineStr">
         <is>
-          <t>YANKEE 4</t>
+          <t>XRAY 2</t>
         </is>
       </c>
       <c r="AD339" t="inlineStr">
@@ -30961,28 +30961,28 @@
       </c>
       <c r="C340" t="inlineStr">
         <is>
-          <t>Basukumba</t>
+          <t>Bopanza</t>
         </is>
       </c>
       <c r="D340" t="inlineStr">
         <is>
-          <t>Basukua</t>
+          <t>Bolongombe</t>
         </is>
       </c>
       <c r="E340" t="inlineStr"/>
       <c r="F340" t="inlineStr">
         <is>
-          <t>232155</t>
+          <t>231054</t>
         </is>
       </c>
       <c r="G340" t="inlineStr">
         <is>
-          <t>1807220476</t>
+          <t>1807220049</t>
         </is>
       </c>
       <c r="H340" t="inlineStr">
         <is>
-          <t>10220275</t>
+          <t>R9221059</t>
         </is>
       </c>
       <c r="I340" t="inlineStr"/>
@@ -31001,7 +31001,7 @@
       </c>
       <c r="S340" t="inlineStr">
         <is>
-          <t>10.50</t>
+          <t>41.00</t>
         </is>
       </c>
       <c r="T340" t="inlineStr">
@@ -31033,7 +31033,7 @@
       <c r="AB340" t="inlineStr"/>
       <c r="AC340" t="inlineStr">
         <is>
-          <t>YANKEE 4</t>
+          <t>XRAY 2</t>
         </is>
       </c>
       <c r="AD340" t="inlineStr">
@@ -31051,28 +31051,28 @@
       </c>
       <c r="C341" t="inlineStr">
         <is>
-          <t>Kobambe</t>
+          <t>Kayembe</t>
         </is>
       </c>
       <c r="D341" t="inlineStr">
         <is>
-          <t>Beosle</t>
+          <t>Bululu</t>
         </is>
       </c>
       <c r="E341" t="inlineStr"/>
       <c r="F341" t="inlineStr">
         <is>
-          <t>232179</t>
+          <t>231070</t>
         </is>
       </c>
       <c r="G341" t="inlineStr">
         <is>
-          <t>1807220472</t>
+          <t>1807220022</t>
         </is>
       </c>
       <c r="H341" t="inlineStr">
         <is>
-          <t>9221395</t>
+          <t>9221108</t>
         </is>
       </c>
       <c r="I341" t="inlineStr"/>
@@ -31091,17 +31091,17 @@
       </c>
       <c r="S341" t="inlineStr">
         <is>
-          <t>8.00</t>
+          <t>43.00</t>
         </is>
       </c>
       <c r="T341" t="inlineStr">
         <is>
-          <t>s</t>
+          <t>l</t>
         </is>
       </c>
       <c r="U341" t="inlineStr">
         <is>
-          <t>s</t>
+          <t>l</t>
         </is>
       </c>
       <c r="V341" t="n">
@@ -31123,7 +31123,7 @@
       <c r="AB341" t="inlineStr"/>
       <c r="AC341" t="inlineStr">
         <is>
-          <t>YANKEE 4</t>
+          <t>XRAY 2</t>
         </is>
       </c>
       <c r="AD341" t="inlineStr">
@@ -31141,28 +31141,28 @@
       </c>
       <c r="C342" t="inlineStr">
         <is>
-          <t>Ikubu</t>
+          <t>Bulomba</t>
         </is>
       </c>
       <c r="D342" t="inlineStr">
         <is>
-          <t>Bilo Mike</t>
+          <t>Czczstain</t>
         </is>
       </c>
       <c r="E342" t="inlineStr"/>
       <c r="F342" t="inlineStr">
         <is>
-          <t>232158</t>
+          <t>231046</t>
         </is>
       </c>
       <c r="G342" t="inlineStr">
         <is>
-          <t>1807220480</t>
+          <t>1807220430</t>
         </is>
       </c>
       <c r="H342" t="inlineStr">
         <is>
-          <t>10220279</t>
+          <t>R09221424</t>
         </is>
       </c>
       <c r="I342" t="inlineStr"/>
@@ -31181,17 +31181,17 @@
       </c>
       <c r="S342" t="inlineStr">
         <is>
-          <t>8.00</t>
+          <t>45.00</t>
         </is>
       </c>
       <c r="T342" t="inlineStr">
         <is>
-          <t>l</t>
+          <t>m</t>
         </is>
       </c>
       <c r="U342" t="inlineStr">
         <is>
-          <t>l</t>
+          <t>m</t>
         </is>
       </c>
       <c r="V342" t="n">
@@ -31213,7 +31213,7 @@
       <c r="AB342" t="inlineStr"/>
       <c r="AC342" t="inlineStr">
         <is>
-          <t>YANKEE 4</t>
+          <t>XRAY 2</t>
         </is>
       </c>
       <c r="AD342" t="inlineStr">
@@ -31231,28 +31231,28 @@
       </c>
       <c r="C343" t="inlineStr">
         <is>
-          <t>Bilala</t>
+          <t>Ngbanda</t>
         </is>
       </c>
       <c r="D343" t="inlineStr">
         <is>
-          <t>Bipoli</t>
+          <t>Gapa</t>
         </is>
       </c>
       <c r="E343" t="inlineStr"/>
       <c r="F343" t="inlineStr">
         <is>
-          <t>232161</t>
+          <t>231062</t>
         </is>
       </c>
       <c r="G343" t="inlineStr">
         <is>
-          <t>1807220466</t>
+          <t>1807220036</t>
         </is>
       </c>
       <c r="H343" t="inlineStr">
         <is>
-          <t>10220195</t>
+          <t>9221076</t>
         </is>
       </c>
       <c r="I343" t="inlineStr"/>
@@ -31271,17 +31271,17 @@
       </c>
       <c r="S343" t="inlineStr">
         <is>
-          <t>7.50</t>
+          <t>43.00</t>
         </is>
       </c>
       <c r="T343" t="inlineStr">
         <is>
-          <t>s</t>
+          <t>m</t>
         </is>
       </c>
       <c r="U343" t="inlineStr">
         <is>
-          <t>s</t>
+          <t>m</t>
         </is>
       </c>
       <c r="V343" t="n">
@@ -31303,7 +31303,7 @@
       <c r="AB343" t="inlineStr"/>
       <c r="AC343" t="inlineStr">
         <is>
-          <t>YANKEE 4</t>
+          <t>XRAY 2</t>
         </is>
       </c>
       <c r="AD343" t="inlineStr">
@@ -31321,28 +31321,28 @@
       </c>
       <c r="C344" t="inlineStr">
         <is>
-          <t>Kagingulu</t>
+          <t>Kabuya</t>
         </is>
       </c>
       <c r="D344" t="inlineStr">
         <is>
-          <t>Fiondo</t>
+          <t>Kaseya</t>
         </is>
       </c>
       <c r="E344" t="inlineStr"/>
       <c r="F344" t="inlineStr">
         <is>
-          <t>232184</t>
+          <t>231064</t>
         </is>
       </c>
       <c r="G344" t="inlineStr">
         <is>
-          <t>1807220588</t>
+          <t>1807220038</t>
         </is>
       </c>
       <c r="H344" t="inlineStr">
         <is>
-          <t>9221212</t>
+          <t>9221078</t>
         </is>
       </c>
       <c r="I344" t="inlineStr"/>
@@ -31361,17 +31361,17 @@
       </c>
       <c r="S344" t="inlineStr">
         <is>
-          <t>9.00</t>
+          <t>43.00</t>
         </is>
       </c>
       <c r="T344" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>s</t>
         </is>
       </c>
       <c r="U344" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>s</t>
         </is>
       </c>
       <c r="V344" t="n">
@@ -31393,7 +31393,7 @@
       <c r="AB344" t="inlineStr"/>
       <c r="AC344" t="inlineStr">
         <is>
-          <t>YANKEE 4</t>
+          <t>XRAY 2</t>
         </is>
       </c>
       <c r="AD344" t="inlineStr">
@@ -31411,28 +31411,28 @@
       </c>
       <c r="C345" t="inlineStr">
         <is>
-          <t>Modekamba</t>
+          <t>Bakutamba</t>
         </is>
       </c>
       <c r="D345" t="inlineStr">
         <is>
-          <t>Gondua</t>
+          <t>Kasongo</t>
         </is>
       </c>
       <c r="E345" t="inlineStr"/>
       <c r="F345" t="inlineStr">
         <is>
-          <t>232171</t>
+          <t>231082</t>
         </is>
       </c>
       <c r="G345" t="inlineStr">
         <is>
-          <t>1807220258</t>
+          <t>em1807220351</t>
         </is>
       </c>
       <c r="H345" t="inlineStr">
         <is>
-          <t>10220248</t>
+          <t>r09221288</t>
         </is>
       </c>
       <c r="I345" t="inlineStr"/>
@@ -31451,7 +31451,7 @@
       </c>
       <c r="S345" t="inlineStr">
         <is>
-          <t>10.00</t>
+          <t>41.00</t>
         </is>
       </c>
       <c r="T345" t="inlineStr">
@@ -31483,7 +31483,7 @@
       <c r="AB345" t="inlineStr"/>
       <c r="AC345" t="inlineStr">
         <is>
-          <t>YANKEE 4</t>
+          <t>XRAY 2</t>
         </is>
       </c>
       <c r="AD345" t="inlineStr">
@@ -31501,28 +31501,28 @@
       </c>
       <c r="C346" t="inlineStr">
         <is>
-          <t>Yankapesh</t>
+          <t>Milenda</t>
         </is>
       </c>
       <c r="D346" t="inlineStr">
         <is>
-          <t>Ilunga</t>
+          <t>Kiziza</t>
         </is>
       </c>
       <c r="E346" t="inlineStr"/>
       <c r="F346" t="inlineStr">
         <is>
-          <t>232169</t>
+          <t>231044</t>
         </is>
       </c>
       <c r="G346" t="inlineStr">
         <is>
-          <t>1807220595</t>
+          <t>1807220015</t>
         </is>
       </c>
       <c r="H346" t="inlineStr">
         <is>
-          <t>9221166</t>
+          <t>R9221145</t>
         </is>
       </c>
       <c r="I346" t="inlineStr"/>
@@ -31541,7 +31541,7 @@
       </c>
       <c r="S346" t="inlineStr">
         <is>
-          <t>7.50</t>
+          <t>41.00</t>
         </is>
       </c>
       <c r="T346" t="inlineStr">
@@ -31573,7 +31573,7 @@
       <c r="AB346" t="inlineStr"/>
       <c r="AC346" t="inlineStr">
         <is>
-          <t>YANKEE 4</t>
+          <t>XRAY 2</t>
         </is>
       </c>
       <c r="AD346" t="inlineStr">
@@ -31591,28 +31591,28 @@
       </c>
       <c r="C347" t="inlineStr">
         <is>
-          <t>Kabuya</t>
+          <t>Lukune</t>
         </is>
       </c>
       <c r="D347" t="inlineStr">
         <is>
-          <t>Kabanza</t>
+          <t>Kongunza</t>
         </is>
       </c>
       <c r="E347" t="inlineStr"/>
       <c r="F347" t="inlineStr">
         <is>
-          <t>232151</t>
+          <t>231075</t>
         </is>
       </c>
       <c r="G347" t="inlineStr">
         <is>
-          <t>1807220490</t>
+          <t>1807220026</t>
         </is>
       </c>
       <c r="H347" t="inlineStr">
         <is>
-          <t>9221179</t>
+          <t>9221103</t>
         </is>
       </c>
       <c r="I347" t="inlineStr"/>
@@ -31631,17 +31631,17 @@
       </c>
       <c r="S347" t="inlineStr">
         <is>
-          <t>7.50</t>
+          <t>43.00</t>
         </is>
       </c>
       <c r="T347" t="inlineStr">
         <is>
-          <t>s</t>
+          <t>l</t>
         </is>
       </c>
       <c r="U347" t="inlineStr">
         <is>
-          <t>s</t>
+          <t>l</t>
         </is>
       </c>
       <c r="V347" t="n">
@@ -31663,7 +31663,7 @@
       <c r="AB347" t="inlineStr"/>
       <c r="AC347" t="inlineStr">
         <is>
-          <t>YANKEE 4</t>
+          <t>XRAY 2</t>
         </is>
       </c>
       <c r="AD347" t="inlineStr">
@@ -31681,28 +31681,28 @@
       </c>
       <c r="C348" t="inlineStr">
         <is>
-          <t>Munganga</t>
+          <t>Nyime</t>
         </is>
       </c>
       <c r="D348" t="inlineStr">
         <is>
-          <t>Kabula</t>
+          <t>Kowabete</t>
         </is>
       </c>
       <c r="E348" t="inlineStr"/>
       <c r="F348" t="inlineStr">
         <is>
-          <t>232164</t>
+          <t>231049</t>
         </is>
       </c>
       <c r="G348" t="inlineStr">
         <is>
-          <t>1807220469</t>
+          <t>1807220045</t>
         </is>
       </c>
       <c r="H348" t="inlineStr">
         <is>
-          <t>10220199</t>
+          <t>R9221055</t>
         </is>
       </c>
       <c r="I348" t="inlineStr"/>
@@ -31721,17 +31721,17 @@
       </c>
       <c r="S348" t="inlineStr">
         <is>
-          <t>9.00</t>
+          <t>45.00</t>
         </is>
       </c>
       <c r="T348" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>l</t>
         </is>
       </c>
       <c r="U348" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>l</t>
         </is>
       </c>
       <c r="V348" t="n">
@@ -31753,7 +31753,7 @@
       <c r="AB348" t="inlineStr"/>
       <c r="AC348" t="inlineStr">
         <is>
-          <t>YANKEE 4</t>
+          <t>XRAY 2</t>
         </is>
       </c>
       <c r="AD348" t="inlineStr">
@@ -31771,28 +31771,28 @@
       </c>
       <c r="C349" t="inlineStr">
         <is>
-          <t>Mbopeti</t>
+          <t>Kapiamba</t>
         </is>
       </c>
       <c r="D349" t="inlineStr">
         <is>
-          <t>Kampuasa</t>
+          <t>Lalubi</t>
         </is>
       </c>
       <c r="E349" t="inlineStr"/>
       <c r="F349" t="inlineStr">
         <is>
-          <t>232173</t>
+          <t>231079</t>
         </is>
       </c>
       <c r="G349" t="inlineStr">
         <is>
-          <t>1807220260</t>
+          <t>1807220012</t>
         </is>
       </c>
       <c r="H349" t="inlineStr">
         <is>
-          <t>10220250</t>
+          <t>9221142</t>
         </is>
       </c>
       <c r="I349" t="inlineStr"/>
@@ -31811,17 +31811,17 @@
       </c>
       <c r="S349" t="inlineStr">
         <is>
-          <t>10.00</t>
+          <t>43.00</t>
         </is>
       </c>
       <c r="T349" t="inlineStr">
         <is>
-          <t>l</t>
+          <t>s</t>
         </is>
       </c>
       <c r="U349" t="inlineStr">
         <is>
-          <t>l</t>
+          <t>s</t>
         </is>
       </c>
       <c r="V349" t="n">
@@ -31843,7 +31843,7 @@
       <c r="AB349" t="inlineStr"/>
       <c r="AC349" t="inlineStr">
         <is>
-          <t>YANKEE 4</t>
+          <t>XRAY 2</t>
         </is>
       </c>
       <c r="AD349" t="inlineStr">
@@ -31861,28 +31861,28 @@
       </c>
       <c r="C350" t="inlineStr">
         <is>
-          <t>Kalombo</t>
+          <t>Mbiya</t>
         </is>
       </c>
       <c r="D350" t="inlineStr">
         <is>
-          <t>Kanyinda</t>
+          <t>Lukengela</t>
         </is>
       </c>
       <c r="E350" t="inlineStr"/>
       <c r="F350" t="inlineStr">
         <is>
-          <t>232177</t>
+          <t>231080</t>
         </is>
       </c>
       <c r="G350" t="inlineStr">
         <is>
-          <t>1807220107</t>
+          <t>1807220013</t>
         </is>
       </c>
       <c r="H350" t="inlineStr">
         <is>
-          <t>10221354</t>
+          <t>9221144</t>
         </is>
       </c>
       <c r="I350" t="inlineStr"/>
@@ -31901,17 +31901,17 @@
       </c>
       <c r="S350" t="inlineStr">
         <is>
-          <t>8.00</t>
+          <t>44.00</t>
         </is>
       </c>
       <c r="T350" t="inlineStr">
         <is>
-          <t>s</t>
+          <t>l</t>
         </is>
       </c>
       <c r="U350" t="inlineStr">
         <is>
-          <t>s</t>
+          <t>l</t>
         </is>
       </c>
       <c r="V350" t="n">
@@ -31933,7 +31933,7 @@
       <c r="AB350" t="inlineStr"/>
       <c r="AC350" t="inlineStr">
         <is>
-          <t>YANKEE 4</t>
+          <t>XRAY 2</t>
         </is>
       </c>
       <c r="AD350" t="inlineStr">
@@ -31951,28 +31951,28 @@
       </c>
       <c r="C351" t="inlineStr">
         <is>
-          <t>Bila</t>
+          <t>Kajingulu</t>
         </is>
       </c>
       <c r="D351" t="inlineStr">
         <is>
-          <t>Kasamba</t>
+          <t>Lumbala</t>
         </is>
       </c>
       <c r="E351" t="inlineStr"/>
       <c r="F351" t="inlineStr">
         <is>
-          <t>232154</t>
+          <t>231076</t>
         </is>
       </c>
       <c r="G351" t="inlineStr">
         <is>
-          <t>1807220475</t>
+          <t>1807220028</t>
         </is>
       </c>
       <c r="H351" t="inlineStr">
         <is>
-          <t>10220274</t>
+          <t>9221102</t>
         </is>
       </c>
       <c r="I351" t="inlineStr"/>
@@ -31991,7 +31991,7 @@
       </c>
       <c r="S351" t="inlineStr">
         <is>
-          <t>8.50</t>
+          <t>42.00</t>
         </is>
       </c>
       <c r="T351" t="inlineStr">
@@ -32023,7 +32023,7 @@
       <c r="AB351" t="inlineStr"/>
       <c r="AC351" t="inlineStr">
         <is>
-          <t>YANKEE 4</t>
+          <t>XRAY 2</t>
         </is>
       </c>
       <c r="AD351" t="inlineStr">
@@ -32041,28 +32041,28 @@
       </c>
       <c r="C352" t="inlineStr">
         <is>
-          <t>Kinsongyi</t>
+          <t>Ngalamulume</t>
         </is>
       </c>
       <c r="D352" t="inlineStr">
         <is>
-          <t>Kinsingyi</t>
+          <t>Matata</t>
         </is>
       </c>
       <c r="E352" t="inlineStr"/>
       <c r="F352" t="inlineStr">
         <is>
-          <t>232183</t>
+          <t>231072</t>
         </is>
       </c>
       <c r="G352" t="inlineStr">
         <is>
-          <t>1807220589</t>
+          <t>1807220025</t>
         </is>
       </c>
       <c r="H352" t="inlineStr">
         <is>
-          <t>9221211</t>
+          <t>9221107</t>
         </is>
       </c>
       <c r="I352" t="inlineStr"/>
@@ -32081,17 +32081,17 @@
       </c>
       <c r="S352" t="inlineStr">
         <is>
-          <t>9.00</t>
+          <t>43.00</t>
         </is>
       </c>
       <c r="T352" t="inlineStr">
         <is>
-          <t>l</t>
+          <t>s</t>
         </is>
       </c>
       <c r="U352" t="inlineStr">
         <is>
-          <t>l</t>
+          <t>s</t>
         </is>
       </c>
       <c r="V352" t="n">
@@ -32113,7 +32113,7 @@
       <c r="AB352" t="inlineStr"/>
       <c r="AC352" t="inlineStr">
         <is>
-          <t>YANKEE 4</t>
+          <t>XRAY 2</t>
         </is>
       </c>
       <c r="AD352" t="inlineStr">
@@ -32131,28 +32131,28 @@
       </c>
       <c r="C353" t="inlineStr">
         <is>
-          <t>Kapuadi</t>
+          <t>Mbakat</t>
         </is>
       </c>
       <c r="D353" t="inlineStr">
         <is>
-          <t>Lukusa</t>
+          <t>Mbakata</t>
         </is>
       </c>
       <c r="E353" t="inlineStr"/>
       <c r="F353" t="inlineStr">
         <is>
-          <t>232170</t>
+          <t>231050</t>
         </is>
       </c>
       <c r="G353" t="inlineStr">
         <is>
-          <t>1807220596</t>
+          <t>1807220046</t>
         </is>
       </c>
       <c r="H353" t="inlineStr">
         <is>
-          <t>9221167</t>
+          <t>R9221056</t>
         </is>
       </c>
       <c r="I353" t="inlineStr"/>
@@ -32171,17 +32171,17 @@
       </c>
       <c r="S353" t="inlineStr">
         <is>
-          <t>8.50</t>
+          <t>42.00</t>
         </is>
       </c>
       <c r="T353" t="inlineStr">
         <is>
-          <t>s</t>
+          <t>m</t>
         </is>
       </c>
       <c r="U353" t="inlineStr">
         <is>
-          <t>s</t>
+          <t>m</t>
         </is>
       </c>
       <c r="V353" t="n">
@@ -32203,7 +32203,7 @@
       <c r="AB353" t="inlineStr"/>
       <c r="AC353" t="inlineStr">
         <is>
-          <t>YANKEE 4</t>
+          <t>XRAY 2</t>
         </is>
       </c>
       <c r="AD353" t="inlineStr">
@@ -32221,28 +32221,28 @@
       </c>
       <c r="C354" t="inlineStr">
         <is>
-          <t>Iyolo</t>
+          <t>Mutombo</t>
         </is>
       </c>
       <c r="D354" t="inlineStr">
         <is>
-          <t>Maboke</t>
+          <t>Mbaya</t>
         </is>
       </c>
       <c r="E354" t="inlineStr"/>
       <c r="F354" t="inlineStr">
         <is>
-          <t>232150</t>
+          <t>231051</t>
         </is>
       </c>
       <c r="G354" t="inlineStr">
         <is>
-          <t>1807220489</t>
+          <t>1807220047</t>
         </is>
       </c>
       <c r="H354" t="inlineStr">
         <is>
-          <t>9221178</t>
+          <t>R9221057</t>
         </is>
       </c>
       <c r="I354" t="inlineStr"/>
@@ -32261,17 +32261,17 @@
       </c>
       <c r="S354" t="inlineStr">
         <is>
-          <t>6.50</t>
+          <t>41.00</t>
         </is>
       </c>
       <c r="T354" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>s</t>
         </is>
       </c>
       <c r="U354" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>s</t>
         </is>
       </c>
       <c r="V354" t="n">
@@ -32293,7 +32293,7 @@
       <c r="AB354" t="inlineStr"/>
       <c r="AC354" t="inlineStr">
         <is>
-          <t>YANKEE 4</t>
+          <t>XRAY 2</t>
         </is>
       </c>
       <c r="AD354" t="inlineStr">
@@ -32311,28 +32311,28 @@
       </c>
       <c r="C355" t="inlineStr">
         <is>
-          <t>Bushiri</t>
+          <t>Lufuluabu</t>
         </is>
       </c>
       <c r="D355" t="inlineStr">
         <is>
-          <t>Makoba</t>
+          <t>Mbikayi</t>
         </is>
       </c>
       <c r="E355" t="inlineStr"/>
       <c r="F355" t="inlineStr">
         <is>
-          <t>232174</t>
+          <t>231061</t>
         </is>
       </c>
       <c r="G355" t="inlineStr">
         <is>
-          <t>1807220110</t>
+          <t>1807220035</t>
         </is>
       </c>
       <c r="H355" t="inlineStr">
         <is>
-          <t>10221351</t>
+          <t>9221075</t>
         </is>
       </c>
       <c r="I355" t="inlineStr"/>
@@ -32351,17 +32351,17 @@
       </c>
       <c r="S355" t="inlineStr">
         <is>
-          <t>10.00</t>
+          <t>43.00</t>
         </is>
       </c>
       <c r="T355" t="inlineStr">
         <is>
-          <t>s</t>
+          <t>l</t>
         </is>
       </c>
       <c r="U355" t="inlineStr">
         <is>
-          <t>s</t>
+          <t>l</t>
         </is>
       </c>
       <c r="V355" t="n">
@@ -32383,7 +32383,7 @@
       <c r="AB355" t="inlineStr"/>
       <c r="AC355" t="inlineStr">
         <is>
-          <t>YANKEE 4</t>
+          <t>XRAY 2</t>
         </is>
       </c>
       <c r="AD355" t="inlineStr">
@@ -32401,28 +32401,28 @@
       </c>
       <c r="C356" t="inlineStr">
         <is>
-          <t>Mobo</t>
+          <t>Mbuyi</t>
         </is>
       </c>
       <c r="D356" t="inlineStr">
         <is>
-          <t>Manzanza</t>
+          <t>Mbiya</t>
         </is>
       </c>
       <c r="E356" t="inlineStr"/>
       <c r="F356" t="inlineStr">
         <is>
-          <t>232172</t>
+          <t>231052</t>
         </is>
       </c>
       <c r="G356" t="inlineStr">
         <is>
-          <t>1807220259</t>
+          <t>1807220048</t>
         </is>
       </c>
       <c r="H356" t="inlineStr">
         <is>
-          <t>10220249</t>
+          <t>R9221060</t>
         </is>
       </c>
       <c r="I356" t="inlineStr"/>
@@ -32441,7 +32441,7 @@
       </c>
       <c r="S356" t="inlineStr">
         <is>
-          <t>10.00</t>
+          <t>42.00</t>
         </is>
       </c>
       <c r="T356" t="inlineStr">
@@ -32473,7 +32473,7 @@
       <c r="AB356" t="inlineStr"/>
       <c r="AC356" t="inlineStr">
         <is>
-          <t>YANKEE 4</t>
+          <t>XRAY 2</t>
         </is>
       </c>
       <c r="AD356" t="inlineStr">
@@ -32491,28 +32491,28 @@
       </c>
       <c r="C357" t="inlineStr">
         <is>
-          <t>Ndandu</t>
+          <t>Mbuyi</t>
         </is>
       </c>
       <c r="D357" t="inlineStr">
         <is>
-          <t>Matangoua</t>
+          <t>Mbuyi</t>
         </is>
       </c>
       <c r="E357" t="inlineStr"/>
       <c r="F357" t="inlineStr">
         <is>
-          <t>232148</t>
+          <t>231047</t>
         </is>
       </c>
       <c r="G357" t="inlineStr">
         <is>
-          <t>1807220082</t>
+          <t>1807220043</t>
         </is>
       </c>
       <c r="H357" t="inlineStr">
         <is>
-          <t>9221337</t>
+          <t>R9221053</t>
         </is>
       </c>
       <c r="I357" t="inlineStr"/>
@@ -32531,17 +32531,17 @@
       </c>
       <c r="S357" t="inlineStr">
         <is>
-          <t>10.50</t>
+          <t>44.00</t>
         </is>
       </c>
       <c r="T357" t="inlineStr">
         <is>
-          <t>l</t>
+          <t>s</t>
         </is>
       </c>
       <c r="U357" t="inlineStr">
         <is>
-          <t>l</t>
+          <t>s</t>
         </is>
       </c>
       <c r="V357" t="n">
@@ -32563,7 +32563,7 @@
       <c r="AB357" t="inlineStr"/>
       <c r="AC357" t="inlineStr">
         <is>
-          <t>YANKEE 4</t>
+          <t>XRAY 2</t>
         </is>
       </c>
       <c r="AD357" t="inlineStr">
@@ -32581,28 +32581,28 @@
       </c>
       <c r="C358" t="inlineStr">
         <is>
-          <t>Muamba</t>
+          <t>Ngolo</t>
         </is>
       </c>
       <c r="D358" t="inlineStr">
         <is>
-          <t>Mbuyi</t>
+          <t>Mianga</t>
         </is>
       </c>
       <c r="E358" t="inlineStr"/>
       <c r="F358" t="inlineStr">
         <is>
-          <t>232185</t>
+          <t>231060</t>
         </is>
       </c>
       <c r="G358" t="inlineStr">
         <is>
-          <t>1807220587</t>
+          <t>1807220017</t>
         </is>
       </c>
       <c r="H358" t="inlineStr">
         <is>
-          <t>9221213</t>
+          <t>9221148</t>
         </is>
       </c>
       <c r="I358" t="inlineStr"/>
@@ -32621,7 +32621,7 @@
       </c>
       <c r="S358" t="inlineStr">
         <is>
-          <t>7.50</t>
+          <t>43.00</t>
         </is>
       </c>
       <c r="T358" t="inlineStr">
@@ -32653,7 +32653,7 @@
       <c r="AB358" t="inlineStr"/>
       <c r="AC358" t="inlineStr">
         <is>
-          <t>YANKEE 4</t>
+          <t>XRAY 2</t>
         </is>
       </c>
       <c r="AD358" t="inlineStr">
@@ -32671,28 +32671,28 @@
       </c>
       <c r="C359" t="inlineStr">
         <is>
-          <t>Ngoyi</t>
+          <t>Muamba</t>
         </is>
       </c>
       <c r="D359" t="inlineStr">
         <is>
-          <t>Mukanya</t>
+          <t>Muamba</t>
         </is>
       </c>
       <c r="E359" t="inlineStr"/>
       <c r="F359" t="inlineStr">
         <is>
-          <t>232167</t>
+          <t>231071</t>
         </is>
       </c>
       <c r="G359" t="inlineStr">
         <is>
-          <t>1807220593</t>
+          <t>1807220023</t>
         </is>
       </c>
       <c r="H359" t="inlineStr">
         <is>
-          <t>9221164</t>
+          <t>9221106</t>
         </is>
       </c>
       <c r="I359" t="inlineStr"/>
@@ -32711,7 +32711,7 @@
       </c>
       <c r="S359" t="inlineStr">
         <is>
-          <t>10.00</t>
+          <t>44.00</t>
         </is>
       </c>
       <c r="T359" t="inlineStr">
@@ -32743,7 +32743,7 @@
       <c r="AB359" t="inlineStr"/>
       <c r="AC359" t="inlineStr">
         <is>
-          <t>YANKEE 4</t>
+          <t>XRAY 2</t>
         </is>
       </c>
       <c r="AD359" t="inlineStr">
@@ -32761,28 +32761,28 @@
       </c>
       <c r="C360" t="inlineStr">
         <is>
-          <t>Mpiana</t>
+          <t>Mukadi</t>
         </is>
       </c>
       <c r="D360" t="inlineStr">
         <is>
-          <t>Mukendi</t>
+          <t>Mukadi</t>
         </is>
       </c>
       <c r="E360" t="inlineStr"/>
       <c r="F360" t="inlineStr">
         <is>
-          <t>232187</t>
+          <t>231059</t>
         </is>
       </c>
       <c r="G360" t="inlineStr">
         <is>
-          <t>1807220582</t>
+          <t>1807220034</t>
         </is>
       </c>
       <c r="H360" t="inlineStr">
         <is>
-          <t>9221218</t>
+          <t>9221074</t>
         </is>
       </c>
       <c r="I360" t="inlineStr"/>
@@ -32801,17 +32801,17 @@
       </c>
       <c r="S360" t="inlineStr">
         <is>
-          <t>10.00</t>
+          <t>43.00</t>
         </is>
       </c>
       <c r="T360" t="inlineStr">
         <is>
-          <t>s</t>
+          <t>m</t>
         </is>
       </c>
       <c r="U360" t="inlineStr">
         <is>
-          <t>s</t>
+          <t>m</t>
         </is>
       </c>
       <c r="V360" t="n">
@@ -32833,7 +32833,7 @@
       <c r="AB360" t="inlineStr"/>
       <c r="AC360" t="inlineStr">
         <is>
-          <t>YANKEE 4</t>
+          <t>XRAY 2</t>
         </is>
       </c>
       <c r="AD360" t="inlineStr">
@@ -32851,28 +32851,28 @@
       </c>
       <c r="C361" t="inlineStr">
         <is>
-          <t>Bayinga</t>
+          <t>Ntumba</t>
         </is>
       </c>
       <c r="D361" t="inlineStr">
         <is>
-          <t>Mulamba</t>
+          <t>Mukendi</t>
         </is>
       </c>
       <c r="E361" t="inlineStr"/>
       <c r="F361" t="inlineStr">
         <is>
-          <t>232149</t>
+          <t>231077</t>
         </is>
       </c>
       <c r="G361" t="inlineStr">
         <is>
-          <t>1807220488</t>
+          <t>1807220030</t>
         </is>
       </c>
       <c r="H361" t="inlineStr">
         <is>
-          <t>9221176</t>
+          <t>9221101</t>
         </is>
       </c>
       <c r="I361" t="inlineStr"/>
@@ -32891,17 +32891,17 @@
       </c>
       <c r="S361" t="inlineStr">
         <is>
-          <t>8.50</t>
+          <t>40.00</t>
         </is>
       </c>
       <c r="T361" t="inlineStr">
         <is>
-          <t>s</t>
+          <t>m</t>
         </is>
       </c>
       <c r="U361" t="inlineStr">
         <is>
-          <t>s</t>
+          <t>m</t>
         </is>
       </c>
       <c r="V361" t="n">
@@ -32923,7 +32923,7 @@
       <c r="AB361" t="inlineStr"/>
       <c r="AC361" t="inlineStr">
         <is>
-          <t>YANKEE 4</t>
+          <t>XRAY 2</t>
         </is>
       </c>
       <c r="AD361" t="inlineStr">
@@ -32941,28 +32941,28 @@
       </c>
       <c r="C362" t="inlineStr">
         <is>
-          <t>Tshituakadia</t>
+          <t>Makulu</t>
         </is>
       </c>
       <c r="D362" t="inlineStr">
         <is>
-          <t>Mutshipayi</t>
+          <t>Mukoso</t>
         </is>
       </c>
       <c r="E362" t="inlineStr"/>
       <c r="F362" t="inlineStr">
         <is>
-          <t>232186</t>
+          <t>231081</t>
         </is>
       </c>
       <c r="G362" t="inlineStr">
         <is>
-          <t>1807220586</t>
+          <t>1807220014</t>
         </is>
       </c>
       <c r="H362" t="inlineStr">
         <is>
-          <t>9221214</t>
+          <t>9221143</t>
         </is>
       </c>
       <c r="I362" t="inlineStr"/>
@@ -32981,17 +32981,17 @@
       </c>
       <c r="S362" t="inlineStr">
         <is>
-          <t>8.50</t>
+          <t>44.00</t>
         </is>
       </c>
       <c r="T362" t="inlineStr">
         <is>
-          <t>s</t>
+          <t>l</t>
         </is>
       </c>
       <c r="U362" t="inlineStr">
         <is>
-          <t>s</t>
+          <t>l</t>
         </is>
       </c>
       <c r="V362" t="n">
@@ -33013,7 +33013,7 @@
       <c r="AB362" t="inlineStr"/>
       <c r="AC362" t="inlineStr">
         <is>
-          <t>YANKEE 4</t>
+          <t>XRAY 2</t>
         </is>
       </c>
       <c r="AD362" t="inlineStr">
@@ -33031,28 +33031,28 @@
       </c>
       <c r="C363" t="inlineStr">
         <is>
-          <t>Ndayi</t>
+          <t>Ibanda</t>
         </is>
       </c>
       <c r="D363" t="inlineStr">
         <is>
-          <t>Ntambwe</t>
+          <t>Mutukalao</t>
         </is>
       </c>
       <c r="E363" t="inlineStr"/>
       <c r="F363" t="inlineStr">
         <is>
-          <t>232156</t>
+          <t>231069</t>
         </is>
       </c>
       <c r="G363" t="inlineStr">
         <is>
-          <t>1807220477</t>
+          <t>1807220021</t>
         </is>
       </c>
       <c r="H363" t="inlineStr">
         <is>
-          <t>10220276</t>
+          <t>9221109</t>
         </is>
       </c>
       <c r="I363" t="inlineStr"/>
@@ -33071,17 +33071,17 @@
       </c>
       <c r="S363" t="inlineStr">
         <is>
-          <t>7.50</t>
+          <t>41.00</t>
         </is>
       </c>
       <c r="T363" t="inlineStr">
         <is>
-          <t>s</t>
+          <t>m</t>
         </is>
       </c>
       <c r="U363" t="inlineStr">
         <is>
-          <t>s</t>
+          <t>m</t>
         </is>
       </c>
       <c r="V363" t="n">
@@ -33103,7 +33103,7 @@
       <c r="AB363" t="inlineStr"/>
       <c r="AC363" t="inlineStr">
         <is>
-          <t>YANKEE 4</t>
+          <t>XRAY 2</t>
         </is>
       </c>
       <c r="AD363" t="inlineStr">
@@ -33121,28 +33121,28 @@
       </c>
       <c r="C364" t="inlineStr">
         <is>
-          <t>Magiondu</t>
+          <t>Longo</t>
         </is>
       </c>
       <c r="D364" t="inlineStr">
         <is>
-          <t>Ntendayi</t>
+          <t>Muzingu</t>
         </is>
       </c>
       <c r="E364" t="inlineStr"/>
       <c r="F364" t="inlineStr">
         <is>
-          <t>232182</t>
+          <t>231067</t>
         </is>
       </c>
       <c r="G364" t="inlineStr">
         <is>
-          <t>1807220590</t>
+          <t>1807220040</t>
         </is>
       </c>
       <c r="H364" t="inlineStr">
         <is>
-          <t>9221230</t>
+          <t>9221080</t>
         </is>
       </c>
       <c r="I364" t="inlineStr"/>
@@ -33161,17 +33161,17 @@
       </c>
       <c r="S364" t="inlineStr">
         <is>
-          <t>10.50</t>
+          <t>43.00</t>
         </is>
       </c>
       <c r="T364" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>l</t>
         </is>
       </c>
       <c r="U364" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>l</t>
         </is>
       </c>
       <c r="V364" t="n">
@@ -33193,7 +33193,7 @@
       <c r="AB364" t="inlineStr"/>
       <c r="AC364" t="inlineStr">
         <is>
-          <t>YANKEE 4</t>
+          <t>XRAY 2</t>
         </is>
       </c>
       <c r="AD364" t="inlineStr">
@@ -33211,28 +33211,28 @@
       </c>
       <c r="C365" t="inlineStr">
         <is>
-          <t>Bowa</t>
+          <t>Kangwa</t>
         </is>
       </c>
       <c r="D365" t="inlineStr">
         <is>
-          <t>Ntumba</t>
+          <t>Ngoyi</t>
         </is>
       </c>
       <c r="E365" t="inlineStr"/>
       <c r="F365" t="inlineStr">
         <is>
-          <t>232152</t>
+          <t>231068</t>
         </is>
       </c>
       <c r="G365" t="inlineStr">
         <is>
-          <t>1807220471</t>
+          <t>1807220029</t>
         </is>
       </c>
       <c r="H365" t="inlineStr">
         <is>
-          <t>9221180</t>
+          <t>9221110</t>
         </is>
       </c>
       <c r="I365" t="inlineStr"/>
@@ -33251,17 +33251,17 @@
       </c>
       <c r="S365" t="inlineStr">
         <is>
-          <t>8.50</t>
+          <t>44.00</t>
         </is>
       </c>
       <c r="T365" t="inlineStr">
         <is>
-          <t>l</t>
+          <t>s</t>
         </is>
       </c>
       <c r="U365" t="inlineStr">
         <is>
-          <t>l</t>
+          <t>s</t>
         </is>
       </c>
       <c r="V365" t="n">
@@ -33283,7 +33283,7 @@
       <c r="AB365" t="inlineStr"/>
       <c r="AC365" t="inlineStr">
         <is>
-          <t>YANKEE 4</t>
+          <t>XRAY 2</t>
         </is>
       </c>
       <c r="AD365" t="inlineStr">
@@ -33301,28 +33301,28 @@
       </c>
       <c r="C366" t="inlineStr">
         <is>
-          <t>Bwazu</t>
+          <t>Munema</t>
         </is>
       </c>
       <c r="D366" t="inlineStr">
         <is>
-          <t>Sanza</t>
+          <t>Ngweji</t>
         </is>
       </c>
       <c r="E366" t="inlineStr"/>
       <c r="F366" t="inlineStr">
         <is>
-          <t>232176</t>
+          <t>231058</t>
         </is>
       </c>
       <c r="G366" t="inlineStr">
         <is>
-          <t>1807220108</t>
+          <t>1807220016</t>
         </is>
       </c>
       <c r="H366" t="inlineStr">
         <is>
-          <t>10221353</t>
+          <t>R9221146</t>
         </is>
       </c>
       <c r="I366" t="inlineStr"/>
@@ -33341,17 +33341,17 @@
       </c>
       <c r="S366" t="inlineStr">
         <is>
-          <t>10.00</t>
+          <t>43.00</t>
         </is>
       </c>
       <c r="T366" t="inlineStr">
         <is>
-          <t>s</t>
+          <t>m</t>
         </is>
       </c>
       <c r="U366" t="inlineStr">
         <is>
-          <t>s</t>
+          <t>m</t>
         </is>
       </c>
       <c r="V366" t="n">
@@ -33373,7 +33373,7 @@
       <c r="AB366" t="inlineStr"/>
       <c r="AC366" t="inlineStr">
         <is>
-          <t>YANKEE 4</t>
+          <t>XRAY 2</t>
         </is>
       </c>
       <c r="AD366" t="inlineStr">
@@ -33391,28 +33391,28 @@
       </c>
       <c r="C367" t="inlineStr">
         <is>
-          <t>Kadima</t>
+          <t>Ngalamulume</t>
         </is>
       </c>
       <c r="D367" t="inlineStr">
         <is>
-          <t>Shalala</t>
+          <t>Ntambwe</t>
         </is>
       </c>
       <c r="E367" t="inlineStr"/>
       <c r="F367" t="inlineStr">
         <is>
-          <t>232168</t>
+          <t>231057</t>
         </is>
       </c>
       <c r="G367" t="inlineStr">
         <is>
-          <t>1807220594</t>
+          <t>1807220033</t>
         </is>
       </c>
       <c r="H367" t="inlineStr">
         <is>
-          <t>9221165</t>
+          <t>R9221073</t>
         </is>
       </c>
       <c r="I367" t="inlineStr"/>
@@ -33431,17 +33431,17 @@
       </c>
       <c r="S367" t="inlineStr">
         <is>
-          <t>8.50</t>
+          <t>43.00</t>
         </is>
       </c>
       <c r="T367" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>s</t>
         </is>
       </c>
       <c r="U367" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>s</t>
         </is>
       </c>
       <c r="V367" t="n">
@@ -33463,7 +33463,7 @@
       <c r="AB367" t="inlineStr"/>
       <c r="AC367" t="inlineStr">
         <is>
-          <t>YANKEE 4</t>
+          <t>XRAY 2</t>
         </is>
       </c>
       <c r="AD367" t="inlineStr">
@@ -33481,28 +33481,28 @@
       </c>
       <c r="C368" t="inlineStr">
         <is>
-          <t>Bolongo</t>
+          <t>Ngalamulume</t>
         </is>
       </c>
       <c r="D368" t="inlineStr">
         <is>
-          <t>Siala</t>
+          <t>Tembele</t>
         </is>
       </c>
       <c r="E368" t="inlineStr"/>
       <c r="F368" t="inlineStr">
         <is>
-          <t>232159</t>
+          <t>231078</t>
         </is>
       </c>
       <c r="G368" t="inlineStr">
         <is>
-          <t>1807220465</t>
+          <t>1807220011</t>
         </is>
       </c>
       <c r="H368" t="inlineStr">
         <is>
-          <t>10220280</t>
+          <t>9221141</t>
         </is>
       </c>
       <c r="I368" t="inlineStr"/>
@@ -33521,17 +33521,17 @@
       </c>
       <c r="S368" t="inlineStr">
         <is>
-          <t>8.50</t>
+          <t>41.00</t>
         </is>
       </c>
       <c r="T368" t="inlineStr">
         <is>
-          <t>s</t>
+          <t>m</t>
         </is>
       </c>
       <c r="U368" t="inlineStr">
         <is>
-          <t>s</t>
+          <t>m</t>
         </is>
       </c>
       <c r="V368" t="n">
@@ -33553,7 +33553,7 @@
       <c r="AB368" t="inlineStr"/>
       <c r="AC368" t="inlineStr">
         <is>
-          <t>YANKEE 4</t>
+          <t>XRAY 2</t>
         </is>
       </c>
       <c r="AD368" t="inlineStr">
@@ -33571,28 +33571,28 @@
       </c>
       <c r="C369" t="inlineStr">
         <is>
-          <t>Mukinayi</t>
+          <t>Ngoyi</t>
         </is>
       </c>
       <c r="D369" t="inlineStr">
         <is>
-          <t>Tshidingi</t>
+          <t>Tshibanda</t>
         </is>
       </c>
       <c r="E369" t="inlineStr"/>
       <c r="F369" t="inlineStr">
         <is>
-          <t>232175</t>
+          <t>231053</t>
         </is>
       </c>
       <c r="G369" t="inlineStr">
         <is>
-          <t>1807220109</t>
+          <t>1807220050</t>
         </is>
       </c>
       <c r="H369" t="inlineStr">
         <is>
-          <t>10221352</t>
+          <t>R9221058</t>
         </is>
       </c>
       <c r="I369" t="inlineStr"/>
@@ -33611,17 +33611,17 @@
       </c>
       <c r="S369" t="inlineStr">
         <is>
-          <t>7.50</t>
+          <t>45.00</t>
         </is>
       </c>
       <c r="T369" t="inlineStr">
         <is>
-          <t>s</t>
+          <t>l</t>
         </is>
       </c>
       <c r="U369" t="inlineStr">
         <is>
-          <t>s</t>
+          <t>l</t>
         </is>
       </c>
       <c r="V369" t="n">
@@ -33643,7 +33643,7 @@
       <c r="AB369" t="inlineStr"/>
       <c r="AC369" t="inlineStr">
         <is>
-          <t>YANKEE 4</t>
+          <t>XRAY 2</t>
         </is>
       </c>
       <c r="AD369" t="inlineStr">
@@ -33661,28 +33661,28 @@
       </c>
       <c r="C370" t="inlineStr">
         <is>
-          <t>Kabengele</t>
+          <t>Kalubobo</t>
         </is>
       </c>
       <c r="D370" t="inlineStr">
         <is>
-          <t>Tshilunba</t>
+          <t>Tshilema</t>
         </is>
       </c>
       <c r="E370" t="inlineStr"/>
       <c r="F370" t="inlineStr">
         <is>
-          <t>232160</t>
+          <t>231066</t>
         </is>
       </c>
       <c r="G370" t="inlineStr">
         <is>
-          <t>1807220464</t>
+          <t>1807220018</t>
         </is>
       </c>
       <c r="H370" t="inlineStr">
         <is>
-          <t>10220196</t>
+          <t>9221150</t>
         </is>
       </c>
       <c r="I370" t="inlineStr"/>
@@ -33701,17 +33701,17 @@
       </c>
       <c r="S370" t="inlineStr">
         <is>
-          <t>8.00</t>
+          <t>43.00</t>
         </is>
       </c>
       <c r="T370" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>s</t>
         </is>
       </c>
       <c r="U370" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>s</t>
         </is>
       </c>
       <c r="V370" t="n">
@@ -33733,7 +33733,7 @@
       <c r="AB370" t="inlineStr"/>
       <c r="AC370" t="inlineStr">
         <is>
-          <t>YANKEE 4</t>
+          <t>XRAY 2</t>
         </is>
       </c>
       <c r="AD370" t="inlineStr">
@@ -33751,28 +33751,28 @@
       </c>
       <c r="C371" t="inlineStr">
         <is>
-          <t>Ilunga</t>
+          <t>Tshamala</t>
         </is>
       </c>
       <c r="D371" t="inlineStr">
         <is>
-          <t>Tshimanga Patrik</t>
+          <t>Tshimanga</t>
         </is>
       </c>
       <c r="E371" t="inlineStr"/>
       <c r="F371" t="inlineStr">
         <is>
-          <t>232166</t>
+          <t>231063</t>
         </is>
       </c>
       <c r="G371" t="inlineStr">
         <is>
-          <t>1807220591</t>
+          <t>1807220037</t>
         </is>
       </c>
       <c r="H371" t="inlineStr">
         <is>
-          <t>9221162</t>
+          <t>9221077</t>
         </is>
       </c>
       <c r="I371" t="inlineStr"/>
@@ -33791,7 +33791,7 @@
       </c>
       <c r="S371" t="inlineStr">
         <is>
-          <t>6.50</t>
+          <t>42.00</t>
         </is>
       </c>
       <c r="T371" t="inlineStr">
@@ -33823,7 +33823,7 @@
       <c r="AB371" t="inlineStr"/>
       <c r="AC371" t="inlineStr">
         <is>
-          <t>YANKEE 4</t>
+          <t>XRAY 2</t>
         </is>
       </c>
       <c r="AD371" t="inlineStr">
@@ -33841,28 +33841,28 @@
       </c>
       <c r="C372" t="inlineStr">
         <is>
-          <t>Sango</t>
+          <t>Kalala</t>
         </is>
       </c>
       <c r="D372" t="inlineStr">
         <is>
-          <t>Wa Sango</t>
+          <t>Badibanga</t>
         </is>
       </c>
       <c r="E372" t="inlineStr"/>
       <c r="F372" t="inlineStr">
         <is>
-          <t>232181</t>
+          <t>232178</t>
         </is>
       </c>
       <c r="G372" t="inlineStr">
         <is>
-          <t>1807220571</t>
+          <t>1807220106</t>
         </is>
       </c>
       <c r="H372" t="inlineStr">
         <is>
-          <t>9221228</t>
+          <t>10221355</t>
         </is>
       </c>
       <c r="I372" t="inlineStr"/>
@@ -33886,12 +33886,12 @@
       </c>
       <c r="T372" t="inlineStr">
         <is>
-          <t>l</t>
+          <t>s</t>
         </is>
       </c>
       <c r="U372" t="inlineStr">
         <is>
-          <t>l</t>
+          <t>s</t>
         </is>
       </c>
       <c r="V372" t="n">
@@ -33931,28 +33931,28 @@
       </c>
       <c r="C373" t="inlineStr">
         <is>
-          <t>Ndaye</t>
+          <t>Basukumba</t>
         </is>
       </c>
       <c r="D373" t="inlineStr">
         <is>
-          <t>Beya</t>
+          <t>Basukua</t>
         </is>
       </c>
       <c r="E373" t="inlineStr"/>
       <c r="F373" t="inlineStr">
         <is>
-          <t>231048</t>
+          <t>232155</t>
         </is>
       </c>
       <c r="G373" t="inlineStr">
         <is>
-          <t>1807220044</t>
+          <t>1807220476</t>
         </is>
       </c>
       <c r="H373" t="inlineStr">
         <is>
-          <t>R9221054</t>
+          <t>10220275</t>
         </is>
       </c>
       <c r="I373" t="inlineStr"/>
@@ -33971,17 +33971,17 @@
       </c>
       <c r="S373" t="inlineStr">
         <is>
-          <t>44.00</t>
+          <t>10.50</t>
         </is>
       </c>
       <c r="T373" t="inlineStr">
         <is>
-          <t>l</t>
+          <t>m</t>
         </is>
       </c>
       <c r="U373" t="inlineStr">
         <is>
-          <t>l</t>
+          <t>m</t>
         </is>
       </c>
       <c r="V373" t="n">
@@ -34003,7 +34003,7 @@
       <c r="AB373" t="inlineStr"/>
       <c r="AC373" t="inlineStr">
         <is>
-          <t>XRAY 2</t>
+          <t>YANKEE 4</t>
         </is>
       </c>
       <c r="AD373" t="inlineStr">
@@ -34021,28 +34021,28 @@
       </c>
       <c r="C374" t="inlineStr">
         <is>
-          <t>Bopanza</t>
+          <t>Kobambe</t>
         </is>
       </c>
       <c r="D374" t="inlineStr">
         <is>
-          <t>Bolongombe</t>
+          <t>Beosle</t>
         </is>
       </c>
       <c r="E374" t="inlineStr"/>
       <c r="F374" t="inlineStr">
         <is>
-          <t>231054</t>
+          <t>232179</t>
         </is>
       </c>
       <c r="G374" t="inlineStr">
         <is>
-          <t>1807220049</t>
+          <t>1807220472</t>
         </is>
       </c>
       <c r="H374" t="inlineStr">
         <is>
-          <t>R9221059</t>
+          <t>9221395</t>
         </is>
       </c>
       <c r="I374" t="inlineStr"/>
@@ -34061,17 +34061,17 @@
       </c>
       <c r="S374" t="inlineStr">
         <is>
-          <t>41.00</t>
+          <t>8.00</t>
         </is>
       </c>
       <c r="T374" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>s</t>
         </is>
       </c>
       <c r="U374" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>s</t>
         </is>
       </c>
       <c r="V374" t="n">
@@ -34093,7 +34093,7 @@
       <c r="AB374" t="inlineStr"/>
       <c r="AC374" t="inlineStr">
         <is>
-          <t>XRAY 2</t>
+          <t>YANKEE 4</t>
         </is>
       </c>
       <c r="AD374" t="inlineStr">
@@ -34111,28 +34111,28 @@
       </c>
       <c r="C375" t="inlineStr">
         <is>
-          <t>Kayembe</t>
+          <t>Ikubu</t>
         </is>
       </c>
       <c r="D375" t="inlineStr">
         <is>
-          <t>Bululu</t>
+          <t>Bilo Mike</t>
         </is>
       </c>
       <c r="E375" t="inlineStr"/>
       <c r="F375" t="inlineStr">
         <is>
-          <t>231070</t>
+          <t>232158</t>
         </is>
       </c>
       <c r="G375" t="inlineStr">
         <is>
-          <t>1807220022</t>
+          <t>1807220480</t>
         </is>
       </c>
       <c r="H375" t="inlineStr">
         <is>
-          <t>9221108</t>
+          <t>10220279</t>
         </is>
       </c>
       <c r="I375" t="inlineStr"/>
@@ -34151,7 +34151,7 @@
       </c>
       <c r="S375" t="inlineStr">
         <is>
-          <t>43.00</t>
+          <t>8.00</t>
         </is>
       </c>
       <c r="T375" t="inlineStr">
@@ -34183,7 +34183,7 @@
       <c r="AB375" t="inlineStr"/>
       <c r="AC375" t="inlineStr">
         <is>
-          <t>XRAY 2</t>
+          <t>YANKEE 4</t>
         </is>
       </c>
       <c r="AD375" t="inlineStr">
@@ -34201,28 +34201,28 @@
       </c>
       <c r="C376" t="inlineStr">
         <is>
-          <t>Bulomba</t>
+          <t>Bilala</t>
         </is>
       </c>
       <c r="D376" t="inlineStr">
         <is>
-          <t>Czczstain</t>
+          <t>Bipoli</t>
         </is>
       </c>
       <c r="E376" t="inlineStr"/>
       <c r="F376" t="inlineStr">
         <is>
-          <t>231046</t>
+          <t>232161</t>
         </is>
       </c>
       <c r="G376" t="inlineStr">
         <is>
-          <t>1807220430</t>
+          <t>1807220466</t>
         </is>
       </c>
       <c r="H376" t="inlineStr">
         <is>
-          <t>R09221424</t>
+          <t>10220195</t>
         </is>
       </c>
       <c r="I376" t="inlineStr"/>
@@ -34241,17 +34241,17 @@
       </c>
       <c r="S376" t="inlineStr">
         <is>
-          <t>45.00</t>
+          <t>7.50</t>
         </is>
       </c>
       <c r="T376" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>s</t>
         </is>
       </c>
       <c r="U376" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>s</t>
         </is>
       </c>
       <c r="V376" t="n">
@@ -34273,7 +34273,7 @@
       <c r="AB376" t="inlineStr"/>
       <c r="AC376" t="inlineStr">
         <is>
-          <t>XRAY 2</t>
+          <t>YANKEE 4</t>
         </is>
       </c>
       <c r="AD376" t="inlineStr">
@@ -34291,28 +34291,28 @@
       </c>
       <c r="C377" t="inlineStr">
         <is>
-          <t>Ngbanda</t>
+          <t>Kagingulu</t>
         </is>
       </c>
       <c r="D377" t="inlineStr">
         <is>
-          <t>Gapa</t>
+          <t>Fiondo</t>
         </is>
       </c>
       <c r="E377" t="inlineStr"/>
       <c r="F377" t="inlineStr">
         <is>
-          <t>231062</t>
+          <t>232184</t>
         </is>
       </c>
       <c r="G377" t="inlineStr">
         <is>
-          <t>1807220036</t>
+          <t>1807220588</t>
         </is>
       </c>
       <c r="H377" t="inlineStr">
         <is>
-          <t>9221076</t>
+          <t>9221212</t>
         </is>
       </c>
       <c r="I377" t="inlineStr"/>
@@ -34331,7 +34331,7 @@
       </c>
       <c r="S377" t="inlineStr">
         <is>
-          <t>43.00</t>
+          <t>9.00</t>
         </is>
       </c>
       <c r="T377" t="inlineStr">
@@ -34363,7 +34363,7 @@
       <c r="AB377" t="inlineStr"/>
       <c r="AC377" t="inlineStr">
         <is>
-          <t>XRAY 2</t>
+          <t>YANKEE 4</t>
         </is>
       </c>
       <c r="AD377" t="inlineStr">
@@ -34381,28 +34381,28 @@
       </c>
       <c r="C378" t="inlineStr">
         <is>
-          <t>Kabuya</t>
+          <t>Modekamba</t>
         </is>
       </c>
       <c r="D378" t="inlineStr">
         <is>
-          <t>Kaseya</t>
+          <t>Gondua</t>
         </is>
       </c>
       <c r="E378" t="inlineStr"/>
       <c r="F378" t="inlineStr">
         <is>
-          <t>231064</t>
+          <t>232171</t>
         </is>
       </c>
       <c r="G378" t="inlineStr">
         <is>
-          <t>1807220038</t>
+          <t>1807220258</t>
         </is>
       </c>
       <c r="H378" t="inlineStr">
         <is>
-          <t>9221078</t>
+          <t>10220248</t>
         </is>
       </c>
       <c r="I378" t="inlineStr"/>
@@ -34421,17 +34421,17 @@
       </c>
       <c r="S378" t="inlineStr">
         <is>
-          <t>43.00</t>
+          <t>10.00</t>
         </is>
       </c>
       <c r="T378" t="inlineStr">
         <is>
-          <t>s</t>
+          <t>m</t>
         </is>
       </c>
       <c r="U378" t="inlineStr">
         <is>
-          <t>s</t>
+          <t>m</t>
         </is>
       </c>
       <c r="V378" t="n">
@@ -34453,7 +34453,7 @@
       <c r="AB378" t="inlineStr"/>
       <c r="AC378" t="inlineStr">
         <is>
-          <t>XRAY 2</t>
+          <t>YANKEE 4</t>
         </is>
       </c>
       <c r="AD378" t="inlineStr">
@@ -34471,28 +34471,28 @@
       </c>
       <c r="C379" t="inlineStr">
         <is>
-          <t>Bakutamba</t>
+          <t>Yankapesh</t>
         </is>
       </c>
       <c r="D379" t="inlineStr">
         <is>
-          <t>Kasongo</t>
+          <t>Ilunga</t>
         </is>
       </c>
       <c r="E379" t="inlineStr"/>
       <c r="F379" t="inlineStr">
         <is>
-          <t>231082</t>
+          <t>232169</t>
         </is>
       </c>
       <c r="G379" t="inlineStr">
         <is>
-          <t>em1807220351</t>
+          <t>1807220595</t>
         </is>
       </c>
       <c r="H379" t="inlineStr">
         <is>
-          <t>r09221288</t>
+          <t>9221166</t>
         </is>
       </c>
       <c r="I379" t="inlineStr"/>
@@ -34511,17 +34511,17 @@
       </c>
       <c r="S379" t="inlineStr">
         <is>
-          <t>41.00</t>
+          <t>7.50</t>
         </is>
       </c>
       <c r="T379" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>s</t>
         </is>
       </c>
       <c r="U379" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>s</t>
         </is>
       </c>
       <c r="V379" t="n">
@@ -34543,7 +34543,7 @@
       <c r="AB379" t="inlineStr"/>
       <c r="AC379" t="inlineStr">
         <is>
-          <t>XRAY 2</t>
+          <t>YANKEE 4</t>
         </is>
       </c>
       <c r="AD379" t="inlineStr">
@@ -34561,28 +34561,28 @@
       </c>
       <c r="C380" t="inlineStr">
         <is>
-          <t>Milenda</t>
+          <t>Kabuya</t>
         </is>
       </c>
       <c r="D380" t="inlineStr">
         <is>
-          <t>Kiziza</t>
+          <t>Kabanza</t>
         </is>
       </c>
       <c r="E380" t="inlineStr"/>
       <c r="F380" t="inlineStr">
         <is>
-          <t>231044</t>
+          <t>232151</t>
         </is>
       </c>
       <c r="G380" t="inlineStr">
         <is>
-          <t>1807220015</t>
+          <t>1807220490</t>
         </is>
       </c>
       <c r="H380" t="inlineStr">
         <is>
-          <t>R9221145</t>
+          <t>9221179</t>
         </is>
       </c>
       <c r="I380" t="inlineStr"/>
@@ -34601,7 +34601,7 @@
       </c>
       <c r="S380" t="inlineStr">
         <is>
-          <t>41.00</t>
+          <t>7.50</t>
         </is>
       </c>
       <c r="T380" t="inlineStr">
@@ -34633,7 +34633,7 @@
       <c r="AB380" t="inlineStr"/>
       <c r="AC380" t="inlineStr">
         <is>
-          <t>XRAY 2</t>
+          <t>YANKEE 4</t>
         </is>
       </c>
       <c r="AD380" t="inlineStr">
@@ -34651,28 +34651,28 @@
       </c>
       <c r="C381" t="inlineStr">
         <is>
-          <t>Lukune</t>
+          <t>Munganga</t>
         </is>
       </c>
       <c r="D381" t="inlineStr">
         <is>
-          <t>Kongunza</t>
+          <t>Kabula</t>
         </is>
       </c>
       <c r="E381" t="inlineStr"/>
       <c r="F381" t="inlineStr">
         <is>
-          <t>231075</t>
+          <t>232164</t>
         </is>
       </c>
       <c r="G381" t="inlineStr">
         <is>
-          <t>1807220026</t>
+          <t>1807220469</t>
         </is>
       </c>
       <c r="H381" t="inlineStr">
         <is>
-          <t>9221103</t>
+          <t>10220199</t>
         </is>
       </c>
       <c r="I381" t="inlineStr"/>
@@ -34691,17 +34691,17 @@
       </c>
       <c r="S381" t="inlineStr">
         <is>
-          <t>43.00</t>
+          <t>9.00</t>
         </is>
       </c>
       <c r="T381" t="inlineStr">
         <is>
-          <t>l</t>
+          <t>m</t>
         </is>
       </c>
       <c r="U381" t="inlineStr">
         <is>
-          <t>l</t>
+          <t>m</t>
         </is>
       </c>
       <c r="V381" t="n">
@@ -34723,7 +34723,7 @@
       <c r="AB381" t="inlineStr"/>
       <c r="AC381" t="inlineStr">
         <is>
-          <t>XRAY 2</t>
+          <t>YANKEE 4</t>
         </is>
       </c>
       <c r="AD381" t="inlineStr">
@@ -34741,28 +34741,28 @@
       </c>
       <c r="C382" t="inlineStr">
         <is>
-          <t>Nyime</t>
+          <t>Mbopeti</t>
         </is>
       </c>
       <c r="D382" t="inlineStr">
         <is>
-          <t>Kowabete</t>
+          <t>Kampuasa</t>
         </is>
       </c>
       <c r="E382" t="inlineStr"/>
       <c r="F382" t="inlineStr">
         <is>
-          <t>231049</t>
+          <t>232173</t>
         </is>
       </c>
       <c r="G382" t="inlineStr">
         <is>
-          <t>1807220045</t>
+          <t>1807220260</t>
         </is>
       </c>
       <c r="H382" t="inlineStr">
         <is>
-          <t>R9221055</t>
+          <t>10220250</t>
         </is>
       </c>
       <c r="I382" t="inlineStr"/>
@@ -34781,7 +34781,7 @@
       </c>
       <c r="S382" t="inlineStr">
         <is>
-          <t>45.00</t>
+          <t>10.00</t>
         </is>
       </c>
       <c r="T382" t="inlineStr">
@@ -34813,7 +34813,7 @@
       <c r="AB382" t="inlineStr"/>
       <c r="AC382" t="inlineStr">
         <is>
-          <t>XRAY 2</t>
+          <t>YANKEE 4</t>
         </is>
       </c>
       <c r="AD382" t="inlineStr">
@@ -34831,28 +34831,28 @@
       </c>
       <c r="C383" t="inlineStr">
         <is>
-          <t>Kapiamba</t>
+          <t>Kalombo</t>
         </is>
       </c>
       <c r="D383" t="inlineStr">
         <is>
-          <t>Lalubi</t>
+          <t>Kanyinda</t>
         </is>
       </c>
       <c r="E383" t="inlineStr"/>
       <c r="F383" t="inlineStr">
         <is>
-          <t>231079</t>
+          <t>232177</t>
         </is>
       </c>
       <c r="G383" t="inlineStr">
         <is>
-          <t>1807220012</t>
+          <t>1807220107</t>
         </is>
       </c>
       <c r="H383" t="inlineStr">
         <is>
-          <t>9221142</t>
+          <t>10221354</t>
         </is>
       </c>
       <c r="I383" t="inlineStr"/>
@@ -34871,7 +34871,7 @@
       </c>
       <c r="S383" t="inlineStr">
         <is>
-          <t>43.00</t>
+          <t>8.00</t>
         </is>
       </c>
       <c r="T383" t="inlineStr">
@@ -34903,7 +34903,7 @@
       <c r="AB383" t="inlineStr"/>
       <c r="AC383" t="inlineStr">
         <is>
-          <t>XRAY 2</t>
+          <t>YANKEE 4</t>
         </is>
       </c>
       <c r="AD383" t="inlineStr">
@@ -34921,28 +34921,28 @@
       </c>
       <c r="C384" t="inlineStr">
         <is>
-          <t>Mbiya</t>
+          <t>Bila</t>
         </is>
       </c>
       <c r="D384" t="inlineStr">
         <is>
-          <t>Lukengela</t>
+          <t>Kasamba</t>
         </is>
       </c>
       <c r="E384" t="inlineStr"/>
       <c r="F384" t="inlineStr">
         <is>
-          <t>231080</t>
+          <t>232154</t>
         </is>
       </c>
       <c r="G384" t="inlineStr">
         <is>
-          <t>1807220013</t>
+          <t>1807220475</t>
         </is>
       </c>
       <c r="H384" t="inlineStr">
         <is>
-          <t>9221144</t>
+          <t>10220274</t>
         </is>
       </c>
       <c r="I384" t="inlineStr"/>
@@ -34961,17 +34961,17 @@
       </c>
       <c r="S384" t="inlineStr">
         <is>
-          <t>44.00</t>
+          <t>8.50</t>
         </is>
       </c>
       <c r="T384" t="inlineStr">
         <is>
-          <t>l</t>
+          <t>s</t>
         </is>
       </c>
       <c r="U384" t="inlineStr">
         <is>
-          <t>l</t>
+          <t>s</t>
         </is>
       </c>
       <c r="V384" t="n">
@@ -34993,7 +34993,7 @@
       <c r="AB384" t="inlineStr"/>
       <c r="AC384" t="inlineStr">
         <is>
-          <t>XRAY 2</t>
+          <t>YANKEE 4</t>
         </is>
       </c>
       <c r="AD384" t="inlineStr">
@@ -35011,28 +35011,28 @@
       </c>
       <c r="C385" t="inlineStr">
         <is>
-          <t>Kajingulu</t>
+          <t>Kinsongyi</t>
         </is>
       </c>
       <c r="D385" t="inlineStr">
         <is>
-          <t>Lumbala</t>
+          <t>Kinsingyi</t>
         </is>
       </c>
       <c r="E385" t="inlineStr"/>
       <c r="F385" t="inlineStr">
         <is>
-          <t>231076</t>
+          <t>232183</t>
         </is>
       </c>
       <c r="G385" t="inlineStr">
         <is>
-          <t>1807220028</t>
+          <t>1807220589</t>
         </is>
       </c>
       <c r="H385" t="inlineStr">
         <is>
-          <t>9221102</t>
+          <t>9221211</t>
         </is>
       </c>
       <c r="I385" t="inlineStr"/>
@@ -35051,17 +35051,17 @@
       </c>
       <c r="S385" t="inlineStr">
         <is>
-          <t>42.00</t>
+          <t>9.00</t>
         </is>
       </c>
       <c r="T385" t="inlineStr">
         <is>
-          <t>s</t>
+          <t>l</t>
         </is>
       </c>
       <c r="U385" t="inlineStr">
         <is>
-          <t>s</t>
+          <t>l</t>
         </is>
       </c>
       <c r="V385" t="n">
@@ -35083,7 +35083,7 @@
       <c r="AB385" t="inlineStr"/>
       <c r="AC385" t="inlineStr">
         <is>
-          <t>XRAY 2</t>
+          <t>YANKEE 4</t>
         </is>
       </c>
       <c r="AD385" t="inlineStr">
@@ -35101,28 +35101,28 @@
       </c>
       <c r="C386" t="inlineStr">
         <is>
-          <t>Ngalamulume</t>
+          <t>Kapuadi</t>
         </is>
       </c>
       <c r="D386" t="inlineStr">
         <is>
-          <t>Matata</t>
+          <t>Lukusa</t>
         </is>
       </c>
       <c r="E386" t="inlineStr"/>
       <c r="F386" t="inlineStr">
         <is>
-          <t>231072</t>
+          <t>232170</t>
         </is>
       </c>
       <c r="G386" t="inlineStr">
         <is>
-          <t>1807220025</t>
+          <t>1807220596</t>
         </is>
       </c>
       <c r="H386" t="inlineStr">
         <is>
-          <t>9221107</t>
+          <t>9221167</t>
         </is>
       </c>
       <c r="I386" t="inlineStr"/>
@@ -35141,7 +35141,7 @@
       </c>
       <c r="S386" t="inlineStr">
         <is>
-          <t>43.00</t>
+          <t>8.50</t>
         </is>
       </c>
       <c r="T386" t="inlineStr">
@@ -35173,7 +35173,7 @@
       <c r="AB386" t="inlineStr"/>
       <c r="AC386" t="inlineStr">
         <is>
-          <t>XRAY 2</t>
+          <t>YANKEE 4</t>
         </is>
       </c>
       <c r="AD386" t="inlineStr">
@@ -35191,28 +35191,28 @@
       </c>
       <c r="C387" t="inlineStr">
         <is>
-          <t>Mbakat</t>
+          <t>Iyolo</t>
         </is>
       </c>
       <c r="D387" t="inlineStr">
         <is>
-          <t>Mbakata</t>
+          <t>Maboke</t>
         </is>
       </c>
       <c r="E387" t="inlineStr"/>
       <c r="F387" t="inlineStr">
         <is>
-          <t>231050</t>
+          <t>232150</t>
         </is>
       </c>
       <c r="G387" t="inlineStr">
         <is>
-          <t>1807220046</t>
+          <t>1807220489</t>
         </is>
       </c>
       <c r="H387" t="inlineStr">
         <is>
-          <t>R9221056</t>
+          <t>9221178</t>
         </is>
       </c>
       <c r="I387" t="inlineStr"/>
@@ -35231,7 +35231,7 @@
       </c>
       <c r="S387" t="inlineStr">
         <is>
-          <t>42.00</t>
+          <t>6.50</t>
         </is>
       </c>
       <c r="T387" t="inlineStr">
@@ -35263,7 +35263,7 @@
       <c r="AB387" t="inlineStr"/>
       <c r="AC387" t="inlineStr">
         <is>
-          <t>XRAY 2</t>
+          <t>YANKEE 4</t>
         </is>
       </c>
       <c r="AD387" t="inlineStr">
@@ -35281,28 +35281,28 @@
       </c>
       <c r="C388" t="inlineStr">
         <is>
-          <t>Mutombo</t>
+          <t>Bushiri</t>
         </is>
       </c>
       <c r="D388" t="inlineStr">
         <is>
-          <t>Mbaya</t>
+          <t>Makoba</t>
         </is>
       </c>
       <c r="E388" t="inlineStr"/>
       <c r="F388" t="inlineStr">
         <is>
-          <t>231051</t>
+          <t>232174</t>
         </is>
       </c>
       <c r="G388" t="inlineStr">
         <is>
-          <t>1807220047</t>
+          <t>1807220110</t>
         </is>
       </c>
       <c r="H388" t="inlineStr">
         <is>
-          <t>R9221057</t>
+          <t>10221351</t>
         </is>
       </c>
       <c r="I388" t="inlineStr"/>
@@ -35321,7 +35321,7 @@
       </c>
       <c r="S388" t="inlineStr">
         <is>
-          <t>41.00</t>
+          <t>10.00</t>
         </is>
       </c>
       <c r="T388" t="inlineStr">
@@ -35353,7 +35353,7 @@
       <c r="AB388" t="inlineStr"/>
       <c r="AC388" t="inlineStr">
         <is>
-          <t>XRAY 2</t>
+          <t>YANKEE 4</t>
         </is>
       </c>
       <c r="AD388" t="inlineStr">
@@ -35371,28 +35371,28 @@
       </c>
       <c r="C389" t="inlineStr">
         <is>
-          <t>Lufuluabu</t>
+          <t>Mobo</t>
         </is>
       </c>
       <c r="D389" t="inlineStr">
         <is>
-          <t>Mbikayi</t>
+          <t>Manzanza</t>
         </is>
       </c>
       <c r="E389" t="inlineStr"/>
       <c r="F389" t="inlineStr">
         <is>
-          <t>231061</t>
+          <t>232172</t>
         </is>
       </c>
       <c r="G389" t="inlineStr">
         <is>
-          <t>1807220035</t>
+          <t>1807220259</t>
         </is>
       </c>
       <c r="H389" t="inlineStr">
         <is>
-          <t>9221075</t>
+          <t>10220249</t>
         </is>
       </c>
       <c r="I389" t="inlineStr"/>
@@ -35411,17 +35411,17 @@
       </c>
       <c r="S389" t="inlineStr">
         <is>
-          <t>43.00</t>
+          <t>10.00</t>
         </is>
       </c>
       <c r="T389" t="inlineStr">
         <is>
-          <t>l</t>
+          <t>s</t>
         </is>
       </c>
       <c r="U389" t="inlineStr">
         <is>
-          <t>l</t>
+          <t>s</t>
         </is>
       </c>
       <c r="V389" t="n">
@@ -35443,7 +35443,7 @@
       <c r="AB389" t="inlineStr"/>
       <c r="AC389" t="inlineStr">
         <is>
-          <t>XRAY 2</t>
+          <t>YANKEE 4</t>
         </is>
       </c>
       <c r="AD389" t="inlineStr">
@@ -35461,28 +35461,28 @@
       </c>
       <c r="C390" t="inlineStr">
         <is>
-          <t>Mbuyi</t>
+          <t>Ndandu</t>
         </is>
       </c>
       <c r="D390" t="inlineStr">
         <is>
-          <t>Mbiya</t>
+          <t>Matangoua</t>
         </is>
       </c>
       <c r="E390" t="inlineStr"/>
       <c r="F390" t="inlineStr">
         <is>
-          <t>231052</t>
+          <t>232148</t>
         </is>
       </c>
       <c r="G390" t="inlineStr">
         <is>
-          <t>1807220048</t>
+          <t>1807220082</t>
         </is>
       </c>
       <c r="H390" t="inlineStr">
         <is>
-          <t>R9221060</t>
+          <t>9221337</t>
         </is>
       </c>
       <c r="I390" t="inlineStr"/>
@@ -35501,17 +35501,17 @@
       </c>
       <c r="S390" t="inlineStr">
         <is>
-          <t>42.00</t>
+          <t>10.50</t>
         </is>
       </c>
       <c r="T390" t="inlineStr">
         <is>
-          <t>s</t>
+          <t>l</t>
         </is>
       </c>
       <c r="U390" t="inlineStr">
         <is>
-          <t>s</t>
+          <t>l</t>
         </is>
       </c>
       <c r="V390" t="n">
@@ -35533,7 +35533,7 @@
       <c r="AB390" t="inlineStr"/>
       <c r="AC390" t="inlineStr">
         <is>
-          <t>XRAY 2</t>
+          <t>YANKEE 4</t>
         </is>
       </c>
       <c r="AD390" t="inlineStr">
@@ -35551,7 +35551,7 @@
       </c>
       <c r="C391" t="inlineStr">
         <is>
-          <t>Mbuyi</t>
+          <t>Muamba</t>
         </is>
       </c>
       <c r="D391" t="inlineStr">
@@ -35562,17 +35562,17 @@
       <c r="E391" t="inlineStr"/>
       <c r="F391" t="inlineStr">
         <is>
-          <t>231047</t>
+          <t>232185</t>
         </is>
       </c>
       <c r="G391" t="inlineStr">
         <is>
-          <t>1807220043</t>
+          <t>1807220587</t>
         </is>
       </c>
       <c r="H391" t="inlineStr">
         <is>
-          <t>R9221053</t>
+          <t>9221213</t>
         </is>
       </c>
       <c r="I391" t="inlineStr"/>
@@ -35591,17 +35591,17 @@
       </c>
       <c r="S391" t="inlineStr">
         <is>
-          <t>44.00</t>
+          <t>7.50</t>
         </is>
       </c>
       <c r="T391" t="inlineStr">
         <is>
-          <t>s</t>
+          <t>l</t>
         </is>
       </c>
       <c r="U391" t="inlineStr">
         <is>
-          <t>s</t>
+          <t>l</t>
         </is>
       </c>
       <c r="V391" t="n">
@@ -35623,7 +35623,7 @@
       <c r="AB391" t="inlineStr"/>
       <c r="AC391" t="inlineStr">
         <is>
-          <t>XRAY 2</t>
+          <t>YANKEE 4</t>
         </is>
       </c>
       <c r="AD391" t="inlineStr">
@@ -35641,28 +35641,28 @@
       </c>
       <c r="C392" t="inlineStr">
         <is>
-          <t>Ngolo</t>
+          <t>Ngoyi</t>
         </is>
       </c>
       <c r="D392" t="inlineStr">
         <is>
-          <t>Mianga</t>
+          <t>Mukanya</t>
         </is>
       </c>
       <c r="E392" t="inlineStr"/>
       <c r="F392" t="inlineStr">
         <is>
-          <t>231060</t>
+          <t>232167</t>
         </is>
       </c>
       <c r="G392" t="inlineStr">
         <is>
-          <t>1807220017</t>
+          <t>1807220593</t>
         </is>
       </c>
       <c r="H392" t="inlineStr">
         <is>
-          <t>9221148</t>
+          <t>9221164</t>
         </is>
       </c>
       <c r="I392" t="inlineStr"/>
@@ -35681,7 +35681,7 @@
       </c>
       <c r="S392" t="inlineStr">
         <is>
-          <t>43.00</t>
+          <t>10.00</t>
         </is>
       </c>
       <c r="T392" t="inlineStr">
@@ -35713,7 +35713,7 @@
       <c r="AB392" t="inlineStr"/>
       <c r="AC392" t="inlineStr">
         <is>
-          <t>XRAY 2</t>
+          <t>YANKEE 4</t>
         </is>
       </c>
       <c r="AD392" t="inlineStr">
@@ -35731,28 +35731,28 @@
       </c>
       <c r="C393" t="inlineStr">
         <is>
-          <t>Muamba</t>
+          <t>Mpiana</t>
         </is>
       </c>
       <c r="D393" t="inlineStr">
         <is>
-          <t>Muamba</t>
+          <t>Mukendi</t>
         </is>
       </c>
       <c r="E393" t="inlineStr"/>
       <c r="F393" t="inlineStr">
         <is>
-          <t>231071</t>
+          <t>232187</t>
         </is>
       </c>
       <c r="G393" t="inlineStr">
         <is>
-          <t>1807220023</t>
+          <t>1807220582</t>
         </is>
       </c>
       <c r="H393" t="inlineStr">
         <is>
-          <t>9221106</t>
+          <t>9221218</t>
         </is>
       </c>
       <c r="I393" t="inlineStr"/>
@@ -35771,17 +35771,17 @@
       </c>
       <c r="S393" t="inlineStr">
         <is>
-          <t>44.00</t>
+          <t>10.00</t>
         </is>
       </c>
       <c r="T393" t="inlineStr">
         <is>
-          <t>l</t>
+          <t>s</t>
         </is>
       </c>
       <c r="U393" t="inlineStr">
         <is>
-          <t>l</t>
+          <t>s</t>
         </is>
       </c>
       <c r="V393" t="n">
@@ -35803,7 +35803,7 @@
       <c r="AB393" t="inlineStr"/>
       <c r="AC393" t="inlineStr">
         <is>
-          <t>XRAY 2</t>
+          <t>YANKEE 4</t>
         </is>
       </c>
       <c r="AD393" t="inlineStr">
@@ -35821,28 +35821,28 @@
       </c>
       <c r="C394" t="inlineStr">
         <is>
-          <t>Mukadi</t>
+          <t>Bayinga</t>
         </is>
       </c>
       <c r="D394" t="inlineStr">
         <is>
-          <t>Mukadi</t>
+          <t>Mulamba</t>
         </is>
       </c>
       <c r="E394" t="inlineStr"/>
       <c r="F394" t="inlineStr">
         <is>
-          <t>231059</t>
+          <t>232149</t>
         </is>
       </c>
       <c r="G394" t="inlineStr">
         <is>
-          <t>1807220034</t>
+          <t>1807220488</t>
         </is>
       </c>
       <c r="H394" t="inlineStr">
         <is>
-          <t>9221074</t>
+          <t>9221176</t>
         </is>
       </c>
       <c r="I394" t="inlineStr"/>
@@ -35861,17 +35861,17 @@
       </c>
       <c r="S394" t="inlineStr">
         <is>
-          <t>43.00</t>
+          <t>8.50</t>
         </is>
       </c>
       <c r="T394" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>s</t>
         </is>
       </c>
       <c r="U394" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>s</t>
         </is>
       </c>
       <c r="V394" t="n">
@@ -35893,7 +35893,7 @@
       <c r="AB394" t="inlineStr"/>
       <c r="AC394" t="inlineStr">
         <is>
-          <t>XRAY 2</t>
+          <t>YANKEE 4</t>
         </is>
       </c>
       <c r="AD394" t="inlineStr">
@@ -35911,28 +35911,28 @@
       </c>
       <c r="C395" t="inlineStr">
         <is>
-          <t>Ntumba</t>
+          <t>Tshituakadia</t>
         </is>
       </c>
       <c r="D395" t="inlineStr">
         <is>
-          <t>Mukendi</t>
+          <t>Mutshipayi</t>
         </is>
       </c>
       <c r="E395" t="inlineStr"/>
       <c r="F395" t="inlineStr">
         <is>
-          <t>231077</t>
+          <t>232186</t>
         </is>
       </c>
       <c r="G395" t="inlineStr">
         <is>
-          <t>1807220030</t>
+          <t>1807220586</t>
         </is>
       </c>
       <c r="H395" t="inlineStr">
         <is>
-          <t>9221101</t>
+          <t>9221214</t>
         </is>
       </c>
       <c r="I395" t="inlineStr"/>
@@ -35951,17 +35951,17 @@
       </c>
       <c r="S395" t="inlineStr">
         <is>
-          <t>40.00</t>
+          <t>8.50</t>
         </is>
       </c>
       <c r="T395" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>s</t>
         </is>
       </c>
       <c r="U395" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>s</t>
         </is>
       </c>
       <c r="V395" t="n">
@@ -35983,7 +35983,7 @@
       <c r="AB395" t="inlineStr"/>
       <c r="AC395" t="inlineStr">
         <is>
-          <t>XRAY 2</t>
+          <t>YANKEE 4</t>
         </is>
       </c>
       <c r="AD395" t="inlineStr">
@@ -36001,28 +36001,28 @@
       </c>
       <c r="C396" t="inlineStr">
         <is>
-          <t>Makulu</t>
+          <t>Ndayi</t>
         </is>
       </c>
       <c r="D396" t="inlineStr">
         <is>
-          <t>Mukoso</t>
+          <t>Ntambwe</t>
         </is>
       </c>
       <c r="E396" t="inlineStr"/>
       <c r="F396" t="inlineStr">
         <is>
-          <t>231081</t>
+          <t>232156</t>
         </is>
       </c>
       <c r="G396" t="inlineStr">
         <is>
-          <t>1807220014</t>
+          <t>1807220477</t>
         </is>
       </c>
       <c r="H396" t="inlineStr">
         <is>
-          <t>9221143</t>
+          <t>10220276</t>
         </is>
       </c>
       <c r="I396" t="inlineStr"/>
@@ -36041,17 +36041,17 @@
       </c>
       <c r="S396" t="inlineStr">
         <is>
-          <t>44.00</t>
+          <t>7.50</t>
         </is>
       </c>
       <c r="T396" t="inlineStr">
         <is>
-          <t>l</t>
+          <t>s</t>
         </is>
       </c>
       <c r="U396" t="inlineStr">
         <is>
-          <t>l</t>
+          <t>s</t>
         </is>
       </c>
       <c r="V396" t="n">
@@ -36073,7 +36073,7 @@
       <c r="AB396" t="inlineStr"/>
       <c r="AC396" t="inlineStr">
         <is>
-          <t>XRAY 2</t>
+          <t>YANKEE 4</t>
         </is>
       </c>
       <c r="AD396" t="inlineStr">
@@ -36091,28 +36091,28 @@
       </c>
       <c r="C397" t="inlineStr">
         <is>
-          <t>Ibanda</t>
+          <t>Magiondu</t>
         </is>
       </c>
       <c r="D397" t="inlineStr">
         <is>
-          <t>Mutukalao</t>
+          <t>Ntendayi</t>
         </is>
       </c>
       <c r="E397" t="inlineStr"/>
       <c r="F397" t="inlineStr">
         <is>
-          <t>231069</t>
+          <t>232182</t>
         </is>
       </c>
       <c r="G397" t="inlineStr">
         <is>
-          <t>1807220021</t>
+          <t>1807220590</t>
         </is>
       </c>
       <c r="H397" t="inlineStr">
         <is>
-          <t>9221109</t>
+          <t>9221230</t>
         </is>
       </c>
       <c r="I397" t="inlineStr"/>
@@ -36131,7 +36131,7 @@
       </c>
       <c r="S397" t="inlineStr">
         <is>
-          <t>41.00</t>
+          <t>10.50</t>
         </is>
       </c>
       <c r="T397" t="inlineStr">
@@ -36163,7 +36163,7 @@
       <c r="AB397" t="inlineStr"/>
       <c r="AC397" t="inlineStr">
         <is>
-          <t>XRAY 2</t>
+          <t>YANKEE 4</t>
         </is>
       </c>
       <c r="AD397" t="inlineStr">
@@ -36181,28 +36181,28 @@
       </c>
       <c r="C398" t="inlineStr">
         <is>
-          <t>Longo</t>
+          <t>Bowa</t>
         </is>
       </c>
       <c r="D398" t="inlineStr">
         <is>
-          <t>Muzingu</t>
+          <t>Ntumba</t>
         </is>
       </c>
       <c r="E398" t="inlineStr"/>
       <c r="F398" t="inlineStr">
         <is>
-          <t>231067</t>
+          <t>232152</t>
         </is>
       </c>
       <c r="G398" t="inlineStr">
         <is>
-          <t>1807220040</t>
+          <t>1807220471</t>
         </is>
       </c>
       <c r="H398" t="inlineStr">
         <is>
-          <t>9221080</t>
+          <t>9221180</t>
         </is>
       </c>
       <c r="I398" t="inlineStr"/>
@@ -36221,7 +36221,7 @@
       </c>
       <c r="S398" t="inlineStr">
         <is>
-          <t>43.00</t>
+          <t>8.50</t>
         </is>
       </c>
       <c r="T398" t="inlineStr">
@@ -36253,7 +36253,7 @@
       <c r="AB398" t="inlineStr"/>
       <c r="AC398" t="inlineStr">
         <is>
-          <t>XRAY 2</t>
+          <t>YANKEE 4</t>
         </is>
       </c>
       <c r="AD398" t="inlineStr">
@@ -36271,28 +36271,28 @@
       </c>
       <c r="C399" t="inlineStr">
         <is>
-          <t>Kangwa</t>
+          <t>Bwazu</t>
         </is>
       </c>
       <c r="D399" t="inlineStr">
         <is>
-          <t>Ngoyi</t>
+          <t>Sanza</t>
         </is>
       </c>
       <c r="E399" t="inlineStr"/>
       <c r="F399" t="inlineStr">
         <is>
-          <t>231068</t>
+          <t>232176</t>
         </is>
       </c>
       <c r="G399" t="inlineStr">
         <is>
-          <t>1807220029</t>
+          <t>1807220108</t>
         </is>
       </c>
       <c r="H399" t="inlineStr">
         <is>
-          <t>9221110</t>
+          <t>10221353</t>
         </is>
       </c>
       <c r="I399" t="inlineStr"/>
@@ -36311,7 +36311,7 @@
       </c>
       <c r="S399" t="inlineStr">
         <is>
-          <t>44.00</t>
+          <t>10.00</t>
         </is>
       </c>
       <c r="T399" t="inlineStr">
@@ -36343,7 +36343,7 @@
       <c r="AB399" t="inlineStr"/>
       <c r="AC399" t="inlineStr">
         <is>
-          <t>XRAY 2</t>
+          <t>YANKEE 4</t>
         </is>
       </c>
       <c r="AD399" t="inlineStr">
@@ -36361,28 +36361,28 @@
       </c>
       <c r="C400" t="inlineStr">
         <is>
-          <t>Munema</t>
+          <t>Kadima</t>
         </is>
       </c>
       <c r="D400" t="inlineStr">
         <is>
-          <t>Ngweji</t>
+          <t>Shalala</t>
         </is>
       </c>
       <c r="E400" t="inlineStr"/>
       <c r="F400" t="inlineStr">
         <is>
-          <t>231058</t>
+          <t>232168</t>
         </is>
       </c>
       <c r="G400" t="inlineStr">
         <is>
-          <t>1807220016</t>
+          <t>1807220594</t>
         </is>
       </c>
       <c r="H400" t="inlineStr">
         <is>
-          <t>R9221146</t>
+          <t>9221165</t>
         </is>
       </c>
       <c r="I400" t="inlineStr"/>
@@ -36401,7 +36401,7 @@
       </c>
       <c r="S400" t="inlineStr">
         <is>
-          <t>43.00</t>
+          <t>8.50</t>
         </is>
       </c>
       <c r="T400" t="inlineStr">
@@ -36433,7 +36433,7 @@
       <c r="AB400" t="inlineStr"/>
       <c r="AC400" t="inlineStr">
         <is>
-          <t>XRAY 2</t>
+          <t>YANKEE 4</t>
         </is>
       </c>
       <c r="AD400" t="inlineStr">
@@ -36451,28 +36451,28 @@
       </c>
       <c r="C401" t="inlineStr">
         <is>
-          <t>Ngalamulume</t>
+          <t>Bolongo</t>
         </is>
       </c>
       <c r="D401" t="inlineStr">
         <is>
-          <t>Ntambwe</t>
+          <t>Siala</t>
         </is>
       </c>
       <c r="E401" t="inlineStr"/>
       <c r="F401" t="inlineStr">
         <is>
-          <t>231057</t>
+          <t>232159</t>
         </is>
       </c>
       <c r="G401" t="inlineStr">
         <is>
-          <t>1807220033</t>
+          <t>1807220465</t>
         </is>
       </c>
       <c r="H401" t="inlineStr">
         <is>
-          <t>R9221073</t>
+          <t>10220280</t>
         </is>
       </c>
       <c r="I401" t="inlineStr"/>
@@ -36491,7 +36491,7 @@
       </c>
       <c r="S401" t="inlineStr">
         <is>
-          <t>43.00</t>
+          <t>8.50</t>
         </is>
       </c>
       <c r="T401" t="inlineStr">
@@ -36523,7 +36523,7 @@
       <c r="AB401" t="inlineStr"/>
       <c r="AC401" t="inlineStr">
         <is>
-          <t>XRAY 2</t>
+          <t>YANKEE 4</t>
         </is>
       </c>
       <c r="AD401" t="inlineStr">
@@ -36541,28 +36541,28 @@
       </c>
       <c r="C402" t="inlineStr">
         <is>
-          <t>Ngalamulume</t>
+          <t>Mukinayi</t>
         </is>
       </c>
       <c r="D402" t="inlineStr">
         <is>
-          <t>Tembele</t>
+          <t>Tshidingi</t>
         </is>
       </c>
       <c r="E402" t="inlineStr"/>
       <c r="F402" t="inlineStr">
         <is>
-          <t>231078</t>
+          <t>232175</t>
         </is>
       </c>
       <c r="G402" t="inlineStr">
         <is>
-          <t>1807220011</t>
+          <t>1807220109</t>
         </is>
       </c>
       <c r="H402" t="inlineStr">
         <is>
-          <t>9221141</t>
+          <t>10221352</t>
         </is>
       </c>
       <c r="I402" t="inlineStr"/>
@@ -36581,17 +36581,17 @@
       </c>
       <c r="S402" t="inlineStr">
         <is>
-          <t>41.00</t>
+          <t>7.50</t>
         </is>
       </c>
       <c r="T402" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>s</t>
         </is>
       </c>
       <c r="U402" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>s</t>
         </is>
       </c>
       <c r="V402" t="n">
@@ -36613,7 +36613,7 @@
       <c r="AB402" t="inlineStr"/>
       <c r="AC402" t="inlineStr">
         <is>
-          <t>XRAY 2</t>
+          <t>YANKEE 4</t>
         </is>
       </c>
       <c r="AD402" t="inlineStr">
@@ -36631,28 +36631,28 @@
       </c>
       <c r="C403" t="inlineStr">
         <is>
-          <t>Ngoyi</t>
+          <t>Kabengele</t>
         </is>
       </c>
       <c r="D403" t="inlineStr">
         <is>
-          <t>Tshibanda</t>
+          <t>Tshilunba</t>
         </is>
       </c>
       <c r="E403" t="inlineStr"/>
       <c r="F403" t="inlineStr">
         <is>
-          <t>231053</t>
+          <t>232160</t>
         </is>
       </c>
       <c r="G403" t="inlineStr">
         <is>
-          <t>1807220050</t>
+          <t>1807220464</t>
         </is>
       </c>
       <c r="H403" t="inlineStr">
         <is>
-          <t>R9221058</t>
+          <t>10220196</t>
         </is>
       </c>
       <c r="I403" t="inlineStr"/>
@@ -36671,17 +36671,17 @@
       </c>
       <c r="S403" t="inlineStr">
         <is>
-          <t>45.00</t>
+          <t>8.00</t>
         </is>
       </c>
       <c r="T403" t="inlineStr">
         <is>
-          <t>l</t>
+          <t>m</t>
         </is>
       </c>
       <c r="U403" t="inlineStr">
         <is>
-          <t>l</t>
+          <t>m</t>
         </is>
       </c>
       <c r="V403" t="n">
@@ -36703,7 +36703,7 @@
       <c r="AB403" t="inlineStr"/>
       <c r="AC403" t="inlineStr">
         <is>
-          <t>XRAY 2</t>
+          <t>YANKEE 4</t>
         </is>
       </c>
       <c r="AD403" t="inlineStr">
@@ -36721,28 +36721,28 @@
       </c>
       <c r="C404" t="inlineStr">
         <is>
-          <t>Kalubobo</t>
+          <t>Ilunga</t>
         </is>
       </c>
       <c r="D404" t="inlineStr">
         <is>
-          <t>Tshilema</t>
+          <t>Tshimanga Patrik</t>
         </is>
       </c>
       <c r="E404" t="inlineStr"/>
       <c r="F404" t="inlineStr">
         <is>
-          <t>231066</t>
+          <t>232166</t>
         </is>
       </c>
       <c r="G404" t="inlineStr">
         <is>
-          <t>1807220018</t>
+          <t>1807220591</t>
         </is>
       </c>
       <c r="H404" t="inlineStr">
         <is>
-          <t>9221150</t>
+          <t>9221162</t>
         </is>
       </c>
       <c r="I404" t="inlineStr"/>
@@ -36761,17 +36761,17 @@
       </c>
       <c r="S404" t="inlineStr">
         <is>
-          <t>43.00</t>
+          <t>6.50</t>
         </is>
       </c>
       <c r="T404" t="inlineStr">
         <is>
-          <t>s</t>
+          <t>l</t>
         </is>
       </c>
       <c r="U404" t="inlineStr">
         <is>
-          <t>s</t>
+          <t>l</t>
         </is>
       </c>
       <c r="V404" t="n">
@@ -36793,7 +36793,7 @@
       <c r="AB404" t="inlineStr"/>
       <c r="AC404" t="inlineStr">
         <is>
-          <t>XRAY 2</t>
+          <t>YANKEE 4</t>
         </is>
       </c>
       <c r="AD404" t="inlineStr">
@@ -36811,28 +36811,28 @@
       </c>
       <c r="C405" t="inlineStr">
         <is>
-          <t>Tshamala</t>
+          <t>Sango</t>
         </is>
       </c>
       <c r="D405" t="inlineStr">
         <is>
-          <t>Tshimanga</t>
+          <t>Wa Sango</t>
         </is>
       </c>
       <c r="E405" t="inlineStr"/>
       <c r="F405" t="inlineStr">
         <is>
-          <t>231063</t>
+          <t>232181</t>
         </is>
       </c>
       <c r="G405" t="inlineStr">
         <is>
-          <t>1807220037</t>
+          <t>1807220571</t>
         </is>
       </c>
       <c r="H405" t="inlineStr">
         <is>
-          <t>9221077</t>
+          <t>9221228</t>
         </is>
       </c>
       <c r="I405" t="inlineStr"/>
@@ -36851,7 +36851,7 @@
       </c>
       <c r="S405" t="inlineStr">
         <is>
-          <t>42.00</t>
+          <t>10.00</t>
         </is>
       </c>
       <c r="T405" t="inlineStr">
@@ -36883,7 +36883,7 @@
       <c r="AB405" t="inlineStr"/>
       <c r="AC405" t="inlineStr">
         <is>
-          <t>XRAY 2</t>
+          <t>YANKEE 4</t>
         </is>
       </c>
       <c r="AD405" t="inlineStr">
@@ -37531,7 +37531,7 @@
       </c>
       <c r="C413" t="inlineStr">
         <is>
-          <t>Tshibangu</t>
+          <t>Nsamba</t>
         </is>
       </c>
       <c r="D413" t="inlineStr">
@@ -37542,17 +37542,17 @@
       <c r="E413" t="inlineStr"/>
       <c r="F413" t="inlineStr">
         <is>
-          <t>232045</t>
+          <t>232023</t>
         </is>
       </c>
       <c r="G413" t="inlineStr">
         <is>
-          <t>1807220598</t>
+          <t>1807220280</t>
         </is>
       </c>
       <c r="H413" t="inlineStr">
         <is>
-          <t>9221169</t>
+          <t>10220230</t>
         </is>
       </c>
       <c r="I413" t="inlineStr"/>
@@ -37571,17 +37571,17 @@
       </c>
       <c r="S413" t="inlineStr">
         <is>
-          <t>7.50</t>
+          <t>9.00</t>
         </is>
       </c>
       <c r="T413" t="inlineStr">
         <is>
-          <t>s</t>
+          <t>l</t>
         </is>
       </c>
       <c r="U413" t="inlineStr">
         <is>
-          <t>s</t>
+          <t>l</t>
         </is>
       </c>
       <c r="V413" t="n">
@@ -37621,7 +37621,7 @@
       </c>
       <c r="C414" t="inlineStr">
         <is>
-          <t>Nsamba</t>
+          <t>Tshibangu</t>
         </is>
       </c>
       <c r="D414" t="inlineStr">
@@ -37632,17 +37632,17 @@
       <c r="E414" t="inlineStr"/>
       <c r="F414" t="inlineStr">
         <is>
-          <t>232023</t>
+          <t>232045</t>
         </is>
       </c>
       <c r="G414" t="inlineStr">
         <is>
-          <t>1807220280</t>
+          <t>1807220598</t>
         </is>
       </c>
       <c r="H414" t="inlineStr">
         <is>
-          <t>10220230</t>
+          <t>9221169</t>
         </is>
       </c>
       <c r="I414" t="inlineStr"/>
@@ -37661,17 +37661,17 @@
       </c>
       <c r="S414" t="inlineStr">
         <is>
-          <t>9.00</t>
+          <t>7.50</t>
         </is>
       </c>
       <c r="T414" t="inlineStr">
         <is>
-          <t>l</t>
+          <t>s</t>
         </is>
       </c>
       <c r="U414" t="inlineStr">
         <is>
-          <t>l</t>
+          <t>s</t>
         </is>
       </c>
       <c r="V414" t="n">
@@ -40321,7 +40321,7 @@
       </c>
       <c r="C444" t="inlineStr">
         <is>
-          <t>Kapuku</t>
+          <t>Kazadi</t>
         </is>
       </c>
       <c r="D444" t="inlineStr">
@@ -40332,17 +40332,17 @@
       <c r="E444" t="inlineStr"/>
       <c r="F444" t="inlineStr">
         <is>
-          <t>232003</t>
+          <t>232033</t>
         </is>
       </c>
       <c r="G444" t="inlineStr">
         <is>
-          <t>1807220160</t>
+          <t>1807220251</t>
         </is>
       </c>
       <c r="H444" t="inlineStr">
         <is>
-          <t>10220300</t>
+          <t>10220241</t>
         </is>
       </c>
       <c r="I444" t="inlineStr"/>
@@ -40361,7 +40361,7 @@
       </c>
       <c r="S444" t="inlineStr">
         <is>
-          <t>40.00</t>
+          <t>10.50</t>
         </is>
       </c>
       <c r="T444" t="inlineStr">
@@ -40411,7 +40411,7 @@
       </c>
       <c r="C445" t="inlineStr">
         <is>
-          <t>Kazadi</t>
+          <t>Kapuku</t>
         </is>
       </c>
       <c r="D445" t="inlineStr">
@@ -40422,17 +40422,17 @@
       <c r="E445" t="inlineStr"/>
       <c r="F445" t="inlineStr">
         <is>
-          <t>232033</t>
+          <t>232003</t>
         </is>
       </c>
       <c r="G445" t="inlineStr">
         <is>
-          <t>1807220251</t>
+          <t>1807220160</t>
         </is>
       </c>
       <c r="H445" t="inlineStr">
         <is>
-          <t>10220241</t>
+          <t>10220300</t>
         </is>
       </c>
       <c r="I445" t="inlineStr"/>
@@ -40451,7 +40451,7 @@
       </c>
       <c r="S445" t="inlineStr">
         <is>
-          <t>10.50</t>
+          <t>40.00</t>
         </is>
       </c>
       <c r="T445" t="inlineStr">
@@ -41311,7 +41311,7 @@
       </c>
       <c r="C455" t="inlineStr">
         <is>
-          <t>Diemo</t>
+          <t>Ndaye</t>
         </is>
       </c>
       <c r="D455" t="inlineStr">
@@ -41322,17 +41322,17 @@
       <c r="E455" t="inlineStr"/>
       <c r="F455" t="inlineStr">
         <is>
-          <t>231039</t>
+          <t>231037</t>
         </is>
       </c>
       <c r="G455" t="inlineStr">
         <is>
-          <t>1807220219</t>
+          <t>1807220217</t>
         </is>
       </c>
       <c r="H455" t="inlineStr">
         <is>
-          <t>R09221099</t>
+          <t>R09221027</t>
         </is>
       </c>
       <c r="I455" t="inlineStr"/>
@@ -41351,17 +41351,17 @@
       </c>
       <c r="S455" t="inlineStr">
         <is>
-          <t>43.00</t>
+          <t>45.00</t>
         </is>
       </c>
       <c r="T455" t="inlineStr">
         <is>
-          <t>l</t>
+          <t>s</t>
         </is>
       </c>
       <c r="U455" t="inlineStr">
         <is>
-          <t>l</t>
+          <t>s</t>
         </is>
       </c>
       <c r="V455" t="n">
@@ -41401,7 +41401,7 @@
       </c>
       <c r="C456" t="inlineStr">
         <is>
-          <t>Ndaye</t>
+          <t>Diemo</t>
         </is>
       </c>
       <c r="D456" t="inlineStr">
@@ -41412,17 +41412,17 @@
       <c r="E456" t="inlineStr"/>
       <c r="F456" t="inlineStr">
         <is>
-          <t>231037</t>
+          <t>231039</t>
         </is>
       </c>
       <c r="G456" t="inlineStr">
         <is>
-          <t>1807220217</t>
+          <t>1807220219</t>
         </is>
       </c>
       <c r="H456" t="inlineStr">
         <is>
-          <t>R09221027</t>
+          <t>R09221099</t>
         </is>
       </c>
       <c r="I456" t="inlineStr"/>
@@ -41441,17 +41441,17 @@
       </c>
       <c r="S456" t="inlineStr">
         <is>
-          <t>45.00</t>
+          <t>43.00</t>
         </is>
       </c>
       <c r="T456" t="inlineStr">
         <is>
-          <t>s</t>
+          <t>l</t>
         </is>
       </c>
       <c r="U456" t="inlineStr">
         <is>
-          <t>s</t>
+          <t>l</t>
         </is>
       </c>
       <c r="V456" t="n">
@@ -47881,28 +47881,28 @@
       </c>
       <c r="C528" t="inlineStr">
         <is>
-          <t>Kongolo</t>
+          <t>Pantoka</t>
         </is>
       </c>
       <c r="D528" t="inlineStr">
         <is>
-          <t>Mwamba</t>
+          <t>Badibanga</t>
         </is>
       </c>
       <c r="E528" t="inlineStr"/>
       <c r="F528" t="inlineStr">
         <is>
-          <t>232157</t>
+          <t>231073</t>
         </is>
       </c>
       <c r="G528" t="inlineStr">
         <is>
-          <t>1807220478</t>
+          <t>1807220024</t>
         </is>
       </c>
       <c r="H528" t="inlineStr">
         <is>
-          <t>10220277</t>
+          <t>9221105</t>
         </is>
       </c>
       <c r="I528" t="inlineStr"/>
@@ -47921,7 +47921,7 @@
       </c>
       <c r="S528" t="inlineStr">
         <is>
-          <t>7.50</t>
+          <t>40.00</t>
         </is>
       </c>
       <c r="T528" t="inlineStr">
@@ -47953,7 +47953,7 @@
       <c r="AB528" t="inlineStr"/>
       <c r="AC528" t="inlineStr">
         <is>
-          <t>YANKEE 4</t>
+          <t>XRAY 2</t>
         </is>
       </c>
       <c r="AD528" t="inlineStr">
@@ -47971,28 +47971,28 @@
       </c>
       <c r="C529" t="inlineStr">
         <is>
-          <t>Pantoka</t>
+          <t>Lombele</t>
         </is>
       </c>
       <c r="D529" t="inlineStr">
         <is>
-          <t>Badibanga</t>
+          <t>Fala</t>
         </is>
       </c>
       <c r="E529" t="inlineStr"/>
       <c r="F529" t="inlineStr">
         <is>
-          <t>231073</t>
+          <t>231043</t>
         </is>
       </c>
       <c r="G529" t="inlineStr">
         <is>
-          <t>1807220024</t>
+          <t>em1807220372</t>
         </is>
       </c>
       <c r="H529" t="inlineStr">
         <is>
-          <t>9221105</t>
+          <t>r09221302</t>
         </is>
       </c>
       <c r="I529" t="inlineStr"/>
@@ -48011,7 +48011,7 @@
       </c>
       <c r="S529" t="inlineStr">
         <is>
-          <t>40.00</t>
+          <t>42.00</t>
         </is>
       </c>
       <c r="T529" t="inlineStr">
@@ -48061,28 +48061,28 @@
       </c>
       <c r="C530" t="inlineStr">
         <is>
-          <t>Lombele</t>
+          <t>Nsabu</t>
         </is>
       </c>
       <c r="D530" t="inlineStr">
         <is>
-          <t>Fala</t>
+          <t>Francois</t>
         </is>
       </c>
       <c r="E530" t="inlineStr"/>
       <c r="F530" t="inlineStr">
         <is>
-          <t>231043</t>
+          <t>231055</t>
         </is>
       </c>
       <c r="G530" t="inlineStr">
         <is>
-          <t>em1807220372</t>
+          <t>1807220031</t>
         </is>
       </c>
       <c r="H530" t="inlineStr">
         <is>
-          <t>r09221302</t>
+          <t>R9221071</t>
         </is>
       </c>
       <c r="I530" t="inlineStr"/>
@@ -48101,17 +48101,17 @@
       </c>
       <c r="S530" t="inlineStr">
         <is>
-          <t>42.00</t>
+          <t>43.00</t>
         </is>
       </c>
       <c r="T530" t="inlineStr">
         <is>
-          <t>s</t>
+          <t>m</t>
         </is>
       </c>
       <c r="U530" t="inlineStr">
         <is>
-          <t>s</t>
+          <t>m</t>
         </is>
       </c>
       <c r="V530" t="n">
@@ -48151,28 +48151,28 @@
       </c>
       <c r="C531" t="inlineStr">
         <is>
-          <t>Nsabu</t>
+          <t>Mpia</t>
         </is>
       </c>
       <c r="D531" t="inlineStr">
         <is>
-          <t>Francois</t>
+          <t>Iyeni</t>
         </is>
       </c>
       <c r="E531" t="inlineStr"/>
       <c r="F531" t="inlineStr">
         <is>
-          <t>231055</t>
+          <t>231042</t>
         </is>
       </c>
       <c r="G531" t="inlineStr">
         <is>
-          <t>1807220031</t>
+          <t>1807220041</t>
         </is>
       </c>
       <c r="H531" t="inlineStr">
         <is>
-          <t>R9221071</t>
+          <t>R9221051</t>
         </is>
       </c>
       <c r="I531" t="inlineStr"/>
@@ -48191,7 +48191,7 @@
       </c>
       <c r="S531" t="inlineStr">
         <is>
-          <t>43.00</t>
+          <t>41.00</t>
         </is>
       </c>
       <c r="T531" t="inlineStr">
@@ -48241,28 +48241,28 @@
       </c>
       <c r="C532" t="inlineStr">
         <is>
-          <t>Mpia</t>
+          <t>Kiangata</t>
         </is>
       </c>
       <c r="D532" t="inlineStr">
         <is>
-          <t>Iyeni</t>
+          <t>Kapela</t>
         </is>
       </c>
       <c r="E532" t="inlineStr"/>
       <c r="F532" t="inlineStr">
         <is>
-          <t>231042</t>
+          <t>231065</t>
         </is>
       </c>
       <c r="G532" t="inlineStr">
         <is>
-          <t>1807220041</t>
+          <t>1807220039</t>
         </is>
       </c>
       <c r="H532" t="inlineStr">
         <is>
-          <t>R9221051</t>
+          <t>9221079</t>
         </is>
       </c>
       <c r="I532" t="inlineStr"/>
@@ -48281,7 +48281,7 @@
       </c>
       <c r="S532" t="inlineStr">
         <is>
-          <t>41.00</t>
+          <t>43.00</t>
         </is>
       </c>
       <c r="T532" t="inlineStr">
@@ -48331,28 +48331,28 @@
       </c>
       <c r="C533" t="inlineStr">
         <is>
-          <t>Kiangata</t>
+          <t>Muamba</t>
         </is>
       </c>
       <c r="D533" t="inlineStr">
         <is>
-          <t>Kapela</t>
+          <t>Luaba</t>
         </is>
       </c>
       <c r="E533" t="inlineStr"/>
       <c r="F533" t="inlineStr">
         <is>
-          <t>231065</t>
+          <t>231045</t>
         </is>
       </c>
       <c r="G533" t="inlineStr">
         <is>
-          <t>1807220039</t>
+          <t>1807220042</t>
         </is>
       </c>
       <c r="H533" t="inlineStr">
         <is>
-          <t>9221079</t>
+          <t>R9221052</t>
         </is>
       </c>
       <c r="I533" t="inlineStr"/>
@@ -48371,17 +48371,17 @@
       </c>
       <c r="S533" t="inlineStr">
         <is>
-          <t>43.00</t>
+          <t>41.00</t>
         </is>
       </c>
       <c r="T533" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>s</t>
         </is>
       </c>
       <c r="U533" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>s</t>
         </is>
       </c>
       <c r="V533" t="n">
@@ -48421,28 +48421,28 @@
       </c>
       <c r="C534" t="inlineStr">
         <is>
-          <t>Muamba</t>
+          <t>Tshibamba</t>
         </is>
       </c>
       <c r="D534" t="inlineStr">
         <is>
-          <t>Luaba</t>
+          <t>Tshibanda</t>
         </is>
       </c>
       <c r="E534" t="inlineStr"/>
       <c r="F534" t="inlineStr">
         <is>
-          <t>231045</t>
+          <t>231074</t>
         </is>
       </c>
       <c r="G534" t="inlineStr">
         <is>
-          <t>1807220042</t>
+          <t>1807220027</t>
         </is>
       </c>
       <c r="H534" t="inlineStr">
         <is>
-          <t>R9221052</t>
+          <t>9221104</t>
         </is>
       </c>
       <c r="I534" t="inlineStr"/>
@@ -48461,17 +48461,17 @@
       </c>
       <c r="S534" t="inlineStr">
         <is>
-          <t>41.00</t>
+          <t>43.00</t>
         </is>
       </c>
       <c r="T534" t="inlineStr">
         <is>
-          <t>s</t>
+          <t>m</t>
         </is>
       </c>
       <c r="U534" t="inlineStr">
         <is>
-          <t>s</t>
+          <t>m</t>
         </is>
       </c>
       <c r="V534" t="n">
@@ -48511,28 +48511,28 @@
       </c>
       <c r="C535" t="inlineStr">
         <is>
-          <t>Tshibamba</t>
+          <t>Kalemba</t>
         </is>
       </c>
       <c r="D535" t="inlineStr">
         <is>
-          <t>Tshibanda</t>
+          <t>Tshimanga</t>
         </is>
       </c>
       <c r="E535" t="inlineStr"/>
       <c r="F535" t="inlineStr">
         <is>
-          <t>231074</t>
+          <t>231056</t>
         </is>
       </c>
       <c r="G535" t="inlineStr">
         <is>
-          <t>1807220027</t>
+          <t>1807220032</t>
         </is>
       </c>
       <c r="H535" t="inlineStr">
         <is>
-          <t>9221104</t>
+          <t>R9221072</t>
         </is>
       </c>
       <c r="I535" t="inlineStr"/>
@@ -48601,28 +48601,28 @@
       </c>
       <c r="C536" t="inlineStr">
         <is>
-          <t>Kalemba</t>
+          <t>Kongolo</t>
         </is>
       </c>
       <c r="D536" t="inlineStr">
         <is>
-          <t>Tshimanga</t>
+          <t>Mwamba</t>
         </is>
       </c>
       <c r="E536" t="inlineStr"/>
       <c r="F536" t="inlineStr">
         <is>
-          <t>231056</t>
+          <t>232157</t>
         </is>
       </c>
       <c r="G536" t="inlineStr">
         <is>
-          <t>1807220032</t>
+          <t>1807220478</t>
         </is>
       </c>
       <c r="H536" t="inlineStr">
         <is>
-          <t>R9221072</t>
+          <t>10220277</t>
         </is>
       </c>
       <c r="I536" t="inlineStr"/>
@@ -48641,17 +48641,17 @@
       </c>
       <c r="S536" t="inlineStr">
         <is>
-          <t>43.00</t>
+          <t>7.50</t>
         </is>
       </c>
       <c r="T536" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>s</t>
         </is>
       </c>
       <c r="U536" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>s</t>
         </is>
       </c>
       <c r="V536" t="n">
@@ -48673,7 +48673,7 @@
       <c r="AB536" t="inlineStr"/>
       <c r="AC536" t="inlineStr">
         <is>
-          <t>XRAY 2</t>
+          <t>YANKEE 4</t>
         </is>
       </c>
       <c r="AD536" t="inlineStr">
